--- a/RegenSolver/enginefiles/solverdata.xlsx
+++ b/RegenSolver/enginefiles/solverdata.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2804964240234751</v>
+        <v>0.2835788023094474</v>
       </c>
       <c r="C2">
-        <v>0.03112434574304199</v>
+        <v>0.03195026651553548</v>
       </c>
       <c r="D2">
         <v>4000000</v>
       </c>
       <c r="E2">
-        <v>283.1374920971622</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>8.45679552266648</v>
+        <v>0.7904995720722098</v>
       </c>
       <c r="G2">
-        <v>0.002624692673670607</v>
+        <v>0.01123956085032268</v>
       </c>
       <c r="H2">
-        <v>0.00331116810549084</v>
+        <v>0.00736992445354484</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2774140457375029</v>
+        <v>0.2804964240234751</v>
       </c>
       <c r="C3">
-        <v>0.03029842497054849</v>
+        <v>0.03112434574304199</v>
       </c>
       <c r="D3">
-        <v>3999741.240396629</v>
+        <v>3999993.865274093</v>
       </c>
       <c r="E3">
-        <v>283.1347990895651</v>
+        <v>300.1356220676383</v>
       </c>
       <c r="F3">
-        <v>8.900658170669033</v>
+        <v>0.9137972910385227</v>
       </c>
       <c r="G3">
-        <v>0.002577583926276266</v>
+        <v>0.01000531677654681</v>
       </c>
       <c r="H3">
-        <v>0.003291992132247409</v>
+        <v>0.006547291861419733</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2743316674515306</v>
+        <v>0.2774140457375029</v>
       </c>
       <c r="C4">
-        <v>0.029472504198055</v>
+        <v>0.03029842497054849</v>
       </c>
       <c r="D4">
-        <v>3998135.968698484</v>
+        <v>3999872.790943056</v>
       </c>
       <c r="E4">
-        <v>283.1180895361171</v>
+        <v>300.2830659185763</v>
       </c>
       <c r="F4">
-        <v>9.423855701022262</v>
+        <v>1.056538451184778</v>
       </c>
       <c r="G4">
-        <v>0.002518863296137357</v>
+        <v>0.008912343935593692</v>
       </c>
       <c r="H4">
-        <v>0.003250339796601124</v>
+        <v>0.005809895099225876</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2712492891655584</v>
+        <v>0.2743316674515306</v>
       </c>
       <c r="C5">
-        <v>0.02864658342556152</v>
+        <v>0.029472504198055</v>
       </c>
       <c r="D5">
-        <v>3996180.339329351</v>
+        <v>3999710.161967827</v>
       </c>
       <c r="E5">
-        <v>283.0977263126393</v>
+        <v>300.4435294797084</v>
       </c>
       <c r="F5">
-        <v>10.03971738172427</v>
+        <v>1.222236417506977</v>
       </c>
       <c r="G5">
-        <v>0.002448904716257735</v>
+        <v>0.007941593847992413</v>
       </c>
       <c r="H5">
-        <v>0.003186812348913251</v>
+        <v>0.005148374855221433</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2681669108795861</v>
+        <v>0.2712492891655584</v>
       </c>
       <c r="C6">
-        <v>0.02782066265306801</v>
+        <v>0.02864658342556152</v>
       </c>
       <c r="D6">
-        <v>3993780.587894841</v>
+        <v>3999490.975608052</v>
       </c>
       <c r="E6">
-        <v>283.072728497381</v>
+        <v>300.6183745788207</v>
       </c>
       <c r="F6">
-        <v>10.76692547573929</v>
+        <v>1.415180119541453</v>
       </c>
       <c r="G6">
-        <v>0.002367917650844442</v>
+        <v>0.007077018891383948</v>
       </c>
       <c r="H6">
-        <v>0.003102277347292874</v>
+        <v>0.004554573613613691</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2650845325936139</v>
+        <v>0.2681669108795861</v>
       </c>
       <c r="C7">
-        <v>0.02699474188057452</v>
+        <v>0.02782066265306801</v>
       </c>
       <c r="D7">
-        <v>3990802.811834188</v>
+        <v>3999194.337420213</v>
       </c>
       <c r="E7">
-        <v>283.041693977771</v>
+        <v>300.8091573863322</v>
       </c>
       <c r="F7">
-        <v>11.62932905995524</v>
+        <v>1.640647027104844</v>
       </c>
       <c r="G7">
-        <v>0.002276266609389782</v>
+        <v>0.006305019515443807</v>
       </c>
       <c r="H7">
-        <v>0.00299786410517</v>
+        <v>0.004021347119569489</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2620021543076416</v>
+        <v>0.2650845325936139</v>
       </c>
       <c r="C8">
-        <v>0.02616882110808103</v>
+        <v>0.02699474188057452</v>
       </c>
       <c r="D8">
-        <v>3987061.350582554</v>
+        <v>3998790.881068564</v>
       </c>
       <c r="E8">
-        <v>283.0026759043468</v>
+        <v>301.017666617248</v>
       </c>
       <c r="F8">
-        <v>12.65778111342035</v>
+        <v>1.905190853428508</v>
       </c>
       <c r="G8">
-        <v>0.002174465449434857</v>
+        <v>0.005614000588645147</v>
       </c>
       <c r="H8">
-        <v>0.002874947708711645</v>
+        <v>0.003542408082464203</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2589197760216694</v>
+        <v>0.2620021543076416</v>
       </c>
       <c r="C9">
-        <v>0.02534290033558753</v>
+        <v>0.02616882110808103</v>
       </c>
       <c r="D9">
-        <v>3982294.090711322</v>
+        <v>3998238.901605249</v>
       </c>
       <c r="E9">
-        <v>282.9529208049916</v>
+        <v>301.2459722309822</v>
       </c>
       <c r="F9">
-        <v>13.8928584086259</v>
+        <v>2.217038422912341</v>
       </c>
       <c r="G9">
-        <v>0.002063159046447929</v>
+        <v>0.004994010799898742</v>
       </c>
       <c r="H9">
-        <v>0.002735118715470751</v>
+        <v>0.003112194912434481</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2558373977356971</v>
+        <v>0.2589197760216694</v>
       </c>
       <c r="C10">
-        <v>0.02451697956309404</v>
+        <v>0.02534290033558753</v>
       </c>
       <c r="D10">
-        <v>3976123.139655478</v>
+        <v>3997478.455783358</v>
       </c>
       <c r="E10">
-        <v>282.8884498884492</v>
+        <v>301.4964887349852</v>
       </c>
       <c r="F10">
-        <v>15.38901981325142</v>
+        <v>2.586651822244989</v>
       </c>
       <c r="G10">
-        <v>0.001943089455345807</v>
+        <v>0.004436443671906931</v>
       </c>
       <c r="H10">
-        <v>0.002580134075438619</v>
+        <v>0.002725759255967703</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2527550194497248</v>
+        <v>0.2558373977356971</v>
       </c>
       <c r="C11">
-        <v>0.02369105879060053</v>
+        <v>0.02451697956309404</v>
       </c>
       <c r="D11">
-        <v>3967990.07377444</v>
+        <v>3996422.164596082</v>
       </c>
       <c r="E11">
-        <v>282.8033662314999</v>
+        <v>301.7720594940439</v>
       </c>
       <c r="F11">
-        <v>17.22125817818199</v>
+        <v>3.027552261902027</v>
       </c>
       <c r="G11">
-        <v>0.001815039027810379</v>
+        <v>0.003933780971567453</v>
       </c>
       <c r="H11">
-        <v>0.002411840934956735</v>
+        <v>0.002378666209604144</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2496726411637526</v>
+        <v>0.2527550194497248</v>
       </c>
       <c r="C12">
-        <v>0.02286513801810705</v>
+        <v>0.02369105879060053</v>
       </c>
       <c r="D12">
-        <v>3957044.698899399</v>
+        <v>3994940.488568261</v>
       </c>
       <c r="E12">
-        <v>282.688657168866</v>
+        <v>302.0760725532701</v>
       </c>
       <c r="F12">
-        <v>19.49639371248294</v>
+        <v>3.55758327279418</v>
       </c>
       <c r="G12">
-        <v>0.001679734418048687</v>
+        <v>0.003479357644122252</v>
       </c>
       <c r="H12">
-        <v>0.002232054929440348</v>
+        <v>0.002066899738770377</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2465902628777804</v>
+        <v>0.2496726411637526</v>
       </c>
       <c r="C13">
-        <v>0.02203921724561356</v>
+        <v>0.02286513801810705</v>
       </c>
       <c r="D13">
-        <v>3941943.19351594</v>
+        <v>3992837.338258068</v>
       </c>
       <c r="E13">
-        <v>282.5300040970135</v>
+        <v>302.4126263743237</v>
       </c>
       <c r="F13">
-        <v>22.37387774605508</v>
+        <v>4.20097139219776</v>
       </c>
       <c r="G13">
-        <v>0.001537671734644897</v>
+        <v>0.003067117776445318</v>
       </c>
       <c r="H13">
-        <v>0.002042346088922695</v>
+        <v>0.001786761118420613</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2435078845918081</v>
+        <v>0.2465902628777804</v>
       </c>
       <c r="C14">
-        <v>0.02121329647312005</v>
+        <v>0.02203921724561356</v>
       </c>
       <c r="D14">
-        <v>3920453.602003717</v>
+        <v>3989807.787273659</v>
       </c>
       <c r="E14">
-        <v>282.3034600854666</v>
+        <v>302.7867804966162</v>
       </c>
       <c r="F14">
-        <v>26.10895092196138</v>
+        <v>4.991999079139462</v>
       </c>
       <c r="G14">
-        <v>0.001388746472384503</v>
+        <v>0.00269129971451381</v>
       </c>
       <c r="H14">
-        <v>0.001843591624989353</v>
+        <v>0.001534733902956449</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2404255063058358</v>
+        <v>0.2435078845918081</v>
       </c>
       <c r="C15">
-        <v>0.02038737570062656</v>
+        <v>0.02121329647312005</v>
       </c>
       <c r="D15">
-        <v>3888597.068921383</v>
+        <v>3985359.808951103</v>
       </c>
       <c r="E15">
-        <v>281.9659273963062</v>
+        <v>303.2049655335767</v>
       </c>
       <c r="F15">
-        <v>31.16097064456112</v>
+        <v>5.982482277016405</v>
       </c>
       <c r="G15">
-        <v>0.001231253177568509</v>
+        <v>0.002345881515107079</v>
       </c>
       <c r="H15">
-        <v>0.001634757729312856</v>
+        <v>0.001307240704553732</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2373431280198636</v>
+        <v>0.2404255063058358</v>
       </c>
       <c r="C16">
-        <v>0.01956145492813306</v>
+        <v>0.02038737570062656</v>
       </c>
       <c r="D16">
-        <v>3838422.573711568</v>
+        <v>3978654.02736795</v>
       </c>
       <c r="E16">
-        <v>281.4301307188966</v>
+        <v>303.6757370829982</v>
       </c>
       <c r="F16">
-        <v>38.58745238463921</v>
+        <v>7.260653845222199</v>
       </c>
       <c r="G16">
-        <v>0.001057697019504345</v>
+        <v>0.002023161061402415</v>
       </c>
       <c r="H16">
-        <v>0.00140768272547635</v>
+        <v>0.001100010222100193</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2342607497338913</v>
+        <v>0.2373431280198636</v>
       </c>
       <c r="C17">
-        <v>0.01911027116091851</v>
+        <v>0.01956145492813306</v>
       </c>
       <c r="D17">
-        <v>3749853.285648022</v>
+        <v>3968112.852870939</v>
       </c>
       <c r="E17">
-        <v>280.4715467223523</v>
+        <v>304.2114532849329</v>
       </c>
       <c r="F17">
-        <v>57.67228950075113</v>
+        <v>9.023115090588794</v>
       </c>
       <c r="G17">
-        <v>0.0007464404318504373</v>
+        <v>0.001707734577503697</v>
       </c>
       <c r="H17">
-        <v>0.00101684124860447</v>
+        <v>0.0009053521563015857</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2311783714479191</v>
+        <v>0.2342607497338913</v>
       </c>
       <c r="C18">
-        <v>0.02088988309406883</v>
+        <v>0.01911027116091851</v>
       </c>
       <c r="D18">
-        <v>3425030.509552196</v>
+        <v>3950043.960927637</v>
       </c>
       <c r="E18">
-        <v>276.806248349107</v>
+        <v>304.8336880123862</v>
       </c>
       <c r="F18">
-        <v>61.8603066601766</v>
+        <v>12.99953612718812</v>
       </c>
       <c r="G18">
-        <v>0.0006874667975817705</v>
+        <v>0.001218077766272745</v>
       </c>
       <c r="H18">
-        <v>0.001027937691604744</v>
+        <v>0.0006514576687856235</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2280959931619468</v>
+        <v>0.2311783714479191</v>
       </c>
       <c r="C19">
-        <v>0.02266949502721918</v>
+        <v>0.02088988309406883</v>
       </c>
       <c r="D19">
-        <v>3321536.514504899</v>
+        <v>3892276.258239083</v>
       </c>
       <c r="E19">
-        <v>275.5848478609593</v>
+        <v>305.6735086714751</v>
       </c>
       <c r="F19">
-        <v>59.7575095080924</v>
+        <v>12.11086986187574</v>
       </c>
       <c r="G19">
-        <v>0.0006999621167678775</v>
+        <v>0.001180317897014037</v>
       </c>
       <c r="H19">
-        <v>0.001108807466491015</v>
+        <v>0.0006897390448762854</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2250136148759746</v>
+        <v>0.2280959931619468</v>
       </c>
       <c r="C20">
-        <v>0.02444910696036953</v>
+        <v>0.02266949502721918</v>
       </c>
       <c r="D20">
-        <v>3317212.266880279</v>
+        <v>3897704.209484585</v>
       </c>
       <c r="E20">
-        <v>275.5332107005629</v>
+        <v>306.5401044315029</v>
       </c>
       <c r="F20">
-        <v>56.25679478061123</v>
+        <v>10.60983243353562</v>
       </c>
       <c r="G20">
-        <v>0.0007302041192930489</v>
+        <v>0.001227950137116804</v>
       </c>
       <c r="H20">
-        <v>0.001204448674373761</v>
+        <v>0.0007720860834913208</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2219312365900023</v>
+        <v>0.2250136148759746</v>
       </c>
       <c r="C21">
-        <v>0.02622871889351988</v>
+        <v>0.02444910696036953</v>
       </c>
       <c r="D21">
-        <v>3334004.339557066</v>
+        <v>3909741.204661296</v>
       </c>
       <c r="E21">
-        <v>275.7334546475747</v>
+        <v>307.3806516872154</v>
       </c>
       <c r="F21">
-        <v>52.85987821403369</v>
+        <v>9.245845366341856</v>
       </c>
       <c r="G21">
-        <v>0.0007655991304903685</v>
+        <v>0.001294484742578536</v>
       </c>
       <c r="H21">
-        <v>0.001306059918255152</v>
+        <v>0.000868808986799901</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2188488583040301</v>
+        <v>0.2219312365900023</v>
       </c>
       <c r="C22">
-        <v>0.0280083308266702</v>
+        <v>0.02622871889351988</v>
       </c>
       <c r="D22">
-        <v>3350466.938805695</v>
+        <v>3919576.454932613</v>
       </c>
       <c r="E22">
-        <v>275.9290532258506</v>
+        <v>308.1868410001916</v>
       </c>
       <c r="F22">
-        <v>49.91960467565564</v>
+        <v>8.081220081545366</v>
       </c>
       <c r="G22">
-        <v>0.0008020694814652737</v>
+        <v>0.001369682479631713</v>
       </c>
       <c r="H22">
-        <v>0.001410126417237198</v>
+        <v>0.0009754618321806099</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2157664800180578</v>
+        <v>0.2188488583040301</v>
       </c>
       <c r="C23">
-        <v>0.02978794275982054</v>
+        <v>0.0280083308266702</v>
       </c>
       <c r="D23">
-        <v>3362605.630130883</v>
+        <v>3926996.004683109</v>
       </c>
       <c r="E23">
-        <v>276.0728268781535</v>
+        <v>308.9577664239329</v>
       </c>
       <c r="F23">
-        <v>47.46253431754407</v>
+        <v>7.100539526918999</v>
       </c>
       <c r="G23">
-        <v>0.0008381648817091642</v>
+        <v>0.001449889373698406</v>
       </c>
       <c r="H23">
-        <v>0.00151469725193685</v>
+        <v>0.001090450802385665</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2126841017320855</v>
+        <v>0.2157664800180578</v>
       </c>
       <c r="C24">
-        <v>0.03156755469297089</v>
+        <v>0.02978794275982054</v>
       </c>
       <c r="D24">
-        <v>3370603.948349345</v>
+        <v>3932512.609335921</v>
       </c>
       <c r="E24">
-        <v>276.1673530364305</v>
+        <v>309.6948043649172</v>
       </c>
       <c r="F24">
-        <v>45.4414934077181</v>
+        <v>6.275401410031018</v>
       </c>
       <c r="G24">
-        <v>0.0008733075968190019</v>
+        <v>0.001533393440821631</v>
       </c>
       <c r="H24">
-        <v>0.001618467989370821</v>
+        <v>0.001213007932862424</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2096017234461133</v>
+        <v>0.2126841017320855</v>
       </c>
       <c r="C25">
-        <v>0.03334716662612121</v>
+        <v>0.03156755469297089</v>
       </c>
       <c r="D25">
-        <v>3375313.136912643</v>
+        <v>3936625.271176584</v>
       </c>
       <c r="E25">
-        <v>276.2229305011998</v>
+        <v>310.4000756401987</v>
       </c>
       <c r="F25">
-        <v>43.80182448513563</v>
+        <v>5.578453507702045</v>
       </c>
       <c r="G25">
-        <v>0.0009072365879876124</v>
+        <v>0.001619263087855891</v>
       </c>
       <c r="H25">
-        <v>0.001720461451446275</v>
+        <v>0.001342694362838181</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.206519345160141</v>
+        <v>0.2096017234461133</v>
       </c>
       <c r="C26">
-        <v>0.03512677855927156</v>
+        <v>0.03334716662612121</v>
       </c>
       <c r="D26">
-        <v>3377503.18511301</v>
+        <v>3939717.502369295</v>
       </c>
       <c r="E26">
-        <v>276.2487578995736</v>
+        <v>311.0758737953861</v>
       </c>
       <c r="F26">
-        <v>42.49647849527668</v>
+        <v>4.986467652153257</v>
       </c>
       <c r="G26">
-        <v>0.0009398242080659535</v>
+        <v>0.001706939717117927</v>
       </c>
       <c r="H26">
-        <v>0.001819891834415771</v>
+        <v>0.001479228766495999</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.2034369668741688</v>
+        <v>0.206519345160141</v>
       </c>
       <c r="C27">
-        <v>0.03690639049242189</v>
+        <v>0.03512677855927156</v>
       </c>
       <c r="D27">
-        <v>3377758.933584568</v>
+        <v>3942067.142239021</v>
       </c>
       <c r="E27">
-        <v>276.2517731588702</v>
+        <v>311.7244360311187</v>
       </c>
       <c r="F27">
-        <v>41.48840169641607</v>
+        <v>4.480510572328723</v>
       </c>
       <c r="G27">
-        <v>0.000971007860720366</v>
+        <v>0.001796064483787533</v>
       </c>
       <c r="H27">
-        <v>0.001916098263537055</v>
+        <v>0.001622415158561564</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2003545885881965</v>
+        <v>0.2034369668741688</v>
       </c>
       <c r="C28">
-        <v>0.03868600242557224</v>
+        <v>0.03690639049242189</v>
       </c>
       <c r="D28">
-        <v>3376503.050923575</v>
+        <v>3943872.361082206</v>
       </c>
       <c r="E28">
-        <v>276.2369647685132</v>
+        <v>312.3478532804622</v>
       </c>
       <c r="F28">
-        <v>40.75000572299317</v>
+        <v>4.04536416377322</v>
       </c>
       <c r="G28">
-        <v>0.0010007600023456</v>
+        <v>0.001886394559814423</v>
       </c>
       <c r="H28">
-        <v>0.002008508711650859</v>
+        <v>0.001772108187467068</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1972722103022243</v>
+        <v>0.2003545885881965</v>
       </c>
       <c r="C29">
-        <v>0.04046561435872258</v>
+        <v>0.03868600242557224</v>
       </c>
       <c r="D29">
-        <v>3374033.929125222</v>
+        <v>3945274.492034701</v>
       </c>
       <c r="E29">
-        <v>276.2078390230767</v>
+        <v>312.9480409147005</v>
       </c>
       <c r="F29">
-        <v>40.26218319544522</v>
+        <v>3.668833165882448</v>
       </c>
       <c r="G29">
-        <v>0.00102907297606917</v>
+        <v>0.001977758747139886</v>
       </c>
       <c r="H29">
-        <v>0.002096618688934418</v>
+        <v>0.001928194736920391</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.194189832016252</v>
+        <v>0.1972722103022243</v>
       </c>
       <c r="C30">
-        <v>0.04224522629187291</v>
+        <v>0.04046561435872258</v>
       </c>
       <c r="D30">
-        <v>3370557.152421032</v>
+        <v>3946374.971500841</v>
       </c>
       <c r="E30">
-        <v>276.1668004689389</v>
+        <v>313.5267365291782</v>
       </c>
       <c r="F30">
-        <v>40.01351609028373</v>
+        <v>3.34112492518487</v>
       </c>
       <c r="G30">
-        <v>0.001055950466327007</v>
+        <v>0.002070032242680598</v>
       </c>
       <c r="H30">
-        <v>0.002179977743425578</v>
+        <v>0.002090583406089871</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1911074537302798</v>
+        <v>0.194189832016252</v>
       </c>
       <c r="C31">
-        <v>0.04402483822502326</v>
+        <v>0.04224522629187291</v>
       </c>
       <c r="D31">
-        <v>3366208.28918452</v>
+        <v>3947247.265667446</v>
       </c>
       <c r="E31">
-        <v>276.1154244058999</v>
+        <v>314.0855095416194</v>
       </c>
       <c r="F31">
-        <v>39.99985959426981</v>
+        <v>3.054341045588143</v>
       </c>
       <c r="G31">
-        <v>0.001081402201562971</v>
+        <v>0.002163121479169514</v>
       </c>
       <c r="H31">
-        <v>0.002258180381958392</v>
+        <v>0.002259198117932249</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1880250754443075</v>
+        <v>0.1911074537302798</v>
       </c>
       <c r="C32">
-        <v>0.04580445015817358</v>
+        <v>0.04402483822502326</v>
       </c>
       <c r="D32">
-        <v>3361068.371566613</v>
+        <v>3947945.127798442</v>
       </c>
       <c r="E32">
-        <v>276.0546402781234</v>
+        <v>314.6257754019526</v>
       </c>
       <c r="F32">
-        <v>40.22437489308457</v>
+        <v>2.802075221430698</v>
       </c>
       <c r="G32">
-        <v>0.001105440307457732</v>
+        <v>0.002256954604008654</v>
       </c>
       <c r="H32">
-        <v>0.002330859639355674</v>
+        <v>0.002433974036406801</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1849426971583353</v>
+        <v>0.1880250754443075</v>
       </c>
       <c r="C33">
-        <v>0.04758406209132393</v>
+        <v>0.04580445015817358</v>
       </c>
       <c r="D33">
-        <v>3355173.667900072</v>
+        <v>3948508.302150317</v>
       </c>
       <c r="E33">
-        <v>275.9848461533427</v>
+        <v>315.1488109797376</v>
       </c>
       <c r="F33">
-        <v>40.69808730891448</v>
+        <v>2.579099607879422</v>
       </c>
       <c r="G33">
-        <v>0.001128076447723889</v>
+        <v>0.002351475274927634</v>
       </c>
       <c r="H33">
-        <v>0.002397682313811533</v>
+        <v>0.002614854846450544</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.181860318872363</v>
+        <v>0.1849426971583353</v>
       </c>
       <c r="C34">
-        <v>0.04936367402447427</v>
+        <v>0.04758406209132393</v>
       </c>
       <c r="D34">
-        <v>3348520.894612377</v>
+        <v>3948966.481212219</v>
       </c>
       <c r="E34">
-        <v>275.9059682885887</v>
+        <v>315.6557695226739</v>
       </c>
       <c r="F34">
-        <v>41.44110213305489</v>
+        <v>2.381121351582015</v>
       </c>
       <c r="G34">
-        <v>0.001149319204522551</v>
+        <v>0.002446638489759794</v>
       </c>
       <c r="H34">
-        <v>0.002458345296363846</v>
+        <v>0.002801790875666073</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1787779405863907</v>
+        <v>0.181860318872363</v>
       </c>
       <c r="C35">
-        <v>0.05114328595762462</v>
+        <v>0.04936367402447427</v>
       </c>
       <c r="D35">
-        <v>3341068.446761401</v>
+        <v>3949342.071876644</v>
       </c>
       <c r="E35">
-        <v>275.817472602096</v>
+        <v>316.1476944859838</v>
       </c>
       <c r="F35">
-        <v>42.48471576908977</v>
+        <v>2.204593504445203</v>
       </c>
       <c r="G35">
-        <v>0.001169171261048425</v>
+        <v>0.002542407708079244</v>
       </c>
       <c r="H35">
-        <v>0.002512572646750462</v>
+        <v>0.002994737756339128</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1756955623004185</v>
+        <v>0.1787779405863907</v>
       </c>
       <c r="C36">
-        <v>0.05292289789077495</v>
+        <v>0.05114328595762462</v>
       </c>
       <c r="D36">
-        <v>3332733.625116292</v>
+        <v>3949652.146584837</v>
       </c>
       <c r="E36">
-        <v>276.9393682090724</v>
+        <v>316.6255319847562</v>
       </c>
       <c r="F36">
-        <v>43.31643484155426</v>
+        <v>2.046567714233628</v>
       </c>
       <c r="G36">
-        <v>0.001169742930525826</v>
+        <v>0.002638752818324801</v>
       </c>
       <c r="H36">
-        <v>0.002560113196166059</v>
+        <v>0.003193655446218755</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1726131840144463</v>
+        <v>0.1756955623004185</v>
       </c>
       <c r="C37">
-        <v>0.05470250982392529</v>
+        <v>0.05292289789077495</v>
       </c>
       <c r="D37">
-        <v>3325426.52938484</v>
+        <v>3949909.83296599</v>
       </c>
       <c r="E37">
-        <v>278.0814662136398</v>
+        <v>317.0901418437923</v>
       </c>
       <c r="F37">
-        <v>42.56687234939914</v>
+        <v>1.904578934551343</v>
       </c>
       <c r="G37">
-        <v>0.001173508412784308</v>
+        <v>0.00273564867278473</v>
       </c>
       <c r="H37">
-        <v>0.002600738533743323</v>
+        <v>0.003398507494563323</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.169530805728474</v>
+        <v>0.1726131840144463</v>
       </c>
       <c r="C38">
-        <v>0.05648212175707563</v>
+        <v>0.05470250982392529</v>
       </c>
       <c r="D38">
-        <v>3324445.504689102</v>
+        <v>3950125.313346889</v>
       </c>
       <c r="E38">
-        <v>279.2415066652244</v>
+        <v>317.5423073238456</v>
       </c>
       <c r="F38">
-        <v>41.69311457327424</v>
+        <v>1.776554709105386</v>
       </c>
       <c r="G38">
-        <v>0.00117821446567861</v>
+        <v>0.002833074012746338</v>
       </c>
       <c r="H38">
-        <v>0.002634241280534164</v>
+        <v>0.003609260480268783</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1664484274425017</v>
+        <v>0.169530805728474</v>
       </c>
       <c r="C39">
-        <v>0.05826173369022596</v>
+        <v>0.05648212175707563</v>
       </c>
       <c r="D39">
-        <v>3324047.2450498</v>
+        <v>3950306.550691011</v>
       </c>
       <c r="E39">
-        <v>280.4147050931469</v>
+        <v>317.982743646519</v>
       </c>
       <c r="F39">
-        <v>40.86317058704184</v>
+        <v>1.660743380867881</v>
       </c>
       <c r="G39">
-        <v>0.001182493365814279</v>
+        <v>0.002931010667154558</v>
       </c>
       <c r="H39">
-        <v>0.002660433584555284</v>
+        <v>0.003825883573540224</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1633660491565295</v>
+        <v>0.1664484274425017</v>
       </c>
       <c r="C40">
-        <v>0.0600413456233763</v>
+        <v>0.05826173369022596</v>
       </c>
       <c r="D40">
-        <v>3323592.20791288</v>
+        <v>3950459.820870203</v>
       </c>
       <c r="E40">
-        <v>281.5997176675727</v>
+        <v>318.4121054523016</v>
       </c>
       <c r="F40">
-        <v>40.09037477524819</v>
+        <v>1.555656942522196</v>
       </c>
       <c r="G40">
-        <v>0.001186212067157379</v>
+        <v>0.003029442946447222</v>
       </c>
       <c r="H40">
-        <v>0.002679145789996905</v>
+        <v>0.004048348188090698</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1602836708705572</v>
+        <v>0.1633660491565295</v>
       </c>
       <c r="C41">
-        <v>0.06182095755652664</v>
+        <v>0.0600413456233763</v>
       </c>
       <c r="D41">
-        <v>3323030.962880292</v>
+        <v>3950590.106526401</v>
       </c>
       <c r="E41">
-        <v>282.7956285047921</v>
+        <v>318.8309933230678</v>
       </c>
       <c r="F41">
-        <v>39.37169332568978</v>
+        <v>1.460025273560644</v>
       </c>
       <c r="G41">
-        <v>0.00118936984966532</v>
+        <v>0.003128357178056612</v>
       </c>
       <c r="H41">
-        <v>0.002690225246282367</v>
+        <v>0.00427662770106817</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.157201292584585</v>
+        <v>0.1602836708705572</v>
       </c>
       <c r="C42">
-        <v>0.06349999999999997</v>
+        <v>0.06182095755652664</v>
       </c>
       <c r="D42">
-        <v>3322373.442469772</v>
+        <v>3950701.391088206</v>
       </c>
       <c r="E42">
-        <v>284.0016192386715</v>
+        <v>319.2399594901325</v>
       </c>
       <c r="F42">
-        <v>38.79129995087289</v>
+        <v>1.372759282530664</v>
       </c>
       <c r="G42">
-        <v>0.00119104383293595</v>
+        <v>0.003227741345791986</v>
       </c>
       <c r="H42">
-        <v>0.002693557475113461</v>
+        <v>0.004510697223960559</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1541189142986127</v>
+        <v>0.157201292584585</v>
       </c>
       <c r="C43">
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>3321726.806229909</v>
+        <v>3950796.880106163</v>
       </c>
       <c r="E43">
-        <v>285.2177388262356</v>
+        <v>319.6395128361546</v>
       </c>
       <c r="F43">
-        <v>39.70391325313925</v>
+        <v>1.297145223607922</v>
       </c>
       <c r="G43">
-        <v>0.001177216256870316</v>
+        <v>0.003322229269117357</v>
       </c>
       <c r="H43">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1510365360126405</v>
+        <v>0.1541189142986127</v>
       </c>
       <c r="C44">
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>3316078.269892576</v>
+        <v>3950876.614019328</v>
       </c>
       <c r="E44">
-        <v>286.4565332043915</v>
+        <v>320.0306161842137</v>
       </c>
       <c r="F44">
-        <v>40.73434462037086</v>
+        <v>1.295336187129712</v>
       </c>
       <c r="G44">
-        <v>0.001163163493623829</v>
+        <v>0.003327434532576602</v>
       </c>
       <c r="H44">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1479541577266682</v>
+        <v>0.1510365360126405</v>
       </c>
       <c r="C45">
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>3309868.324679671</v>
+        <v>3950861.515180379</v>
       </c>
       <c r="E45">
-        <v>287.7191625653055</v>
+        <v>320.4217093044151</v>
       </c>
       <c r="F45">
-        <v>41.78396367889098</v>
+        <v>1.293554995486707</v>
       </c>
       <c r="G45">
-        <v>0.001149572647018493</v>
+        <v>0.003332586362042118</v>
       </c>
       <c r="H45">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.144871779440696</v>
+        <v>0.1479541577266682</v>
       </c>
       <c r="C46">
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>3303415.108650577</v>
+        <v>3950846.445551637</v>
       </c>
       <c r="E46">
-        <v>289.0049470232152</v>
+        <v>320.8127919625714</v>
       </c>
       <c r="F46">
-        <v>42.84602721550612</v>
+        <v>1.291801340627015</v>
       </c>
       <c r="G46">
-        <v>0.001136457126846259</v>
+        <v>0.003337684847752845</v>
       </c>
       <c r="H46">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1417894011547237</v>
+        <v>0.144871779440696</v>
       </c>
       <c r="C47">
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>3296736.414610503</v>
+        <v>3950831.404544226</v>
       </c>
       <c r="E47">
-        <v>290.3130828481509</v>
+        <v>321.203863947205</v>
       </c>
       <c r="F47">
-        <v>43.92052499511519</v>
+        <v>1.290074991106368</v>
       </c>
       <c r="G47">
-        <v>0.001123787103455194</v>
+        <v>0.003342730032376083</v>
       </c>
       <c r="H47">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1387070228687514</v>
+        <v>0.1417894011547237</v>
       </c>
       <c r="C48">
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>3289827.571989355</v>
+        <v>3950816.391482831</v>
       </c>
       <c r="E48">
-        <v>291.6427652034636</v>
+        <v>321.5949250489916</v>
       </c>
       <c r="F48">
-        <v>45.00798383068845</v>
+        <v>1.288375719585105</v>
       </c>
       <c r="G48">
-        <v>0.001111531988338945</v>
+        <v>0.003347721958761773</v>
       </c>
       <c r="H48">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1356246445827792</v>
+        <v>0.1387070228687514</v>
       </c>
       <c r="C49">
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>3282681.89226742</v>
+        <v>3950801.40569853</v>
       </c>
       <c r="E49">
-        <v>292.9931992664288</v>
+        <v>321.9859750606593</v>
       </c>
       <c r="F49">
-        <v>46.10901110240455</v>
+        <v>1.286703302752648</v>
       </c>
       <c r="G49">
-        <v>0.001099663163876795</v>
+        <v>0.003352660669953164</v>
       </c>
       <c r="H49">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1325422662968069</v>
+        <v>0.1356246445827792</v>
       </c>
       <c r="C50">
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>3275292.174494066</v>
+        <v>3950786.446528645</v>
       </c>
       <c r="E50">
-        <v>294.3636031905019</v>
+        <v>322.3770137768907</v>
       </c>
       <c r="F50">
-        <v>47.22426191115295</v>
+        <v>1.28505752125305</v>
       </c>
       <c r="G50">
-        <v>0.001088154014103238</v>
+        <v>0.003357546209200528</v>
       </c>
       <c r="H50">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1294598880108347</v>
+        <v>0.1325422662968069</v>
       </c>
       <c r="C51">
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>3267650.795435814</v>
+        <v>3950771.513316608</v>
       </c>
       <c r="E51">
-        <v>295.7532102161899</v>
+        <v>322.7680409942274</v>
       </c>
       <c r="F51">
-        <v>48.35443805437988</v>
+        <v>1.283438159612679</v>
       </c>
       <c r="G51">
-        <v>0.001076979785465975</v>
+        <v>0.003362378619972638</v>
       </c>
       <c r="H51">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1263775097248624</v>
+        <v>0.1294598880108347</v>
       </c>
       <c r="C52">
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>3259749.691292653</v>
+        <v>3950756.605411811</v>
       </c>
       <c r="E52">
-        <v>297.1612704571905</v>
+        <v>323.1590565109764</v>
       </c>
       <c r="F52">
-        <v>49.50028953764217</v>
+        <v>1.281845006169551</v>
       </c>
       <c r="G52">
-        <v>0.001066117450168748</v>
+        <v>0.003367157945969115</v>
       </c>
       <c r="H52">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1232951314388902</v>
+        <v>0.1263775097248624</v>
       </c>
       <c r="C53">
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>3251580.329740513</v>
+        <v>3950741.72216948</v>
       </c>
       <c r="E53">
-        <v>298.5870524074745</v>
+        <v>323.5500601271184</v>
       </c>
       <c r="F53">
-        <v>50.66261645214924</v>
+        <v>1.280277853004391</v>
       </c>
       <c r="G53">
-        <v>0.001055545581804663</v>
+        <v>0.003371884231131328</v>
       </c>
       <c r="H53">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1202127531529179</v>
+        <v>0.1232951314388902</v>
       </c>
       <c r="C54">
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>3243133.679609647</v>
+        <v>3950726.862950534</v>
       </c>
       <c r="E54">
-        <v>300.0298441839549</v>
+        <v>323.9410516442194</v>
       </c>
       <c r="F54">
-        <v>51.8422711086816</v>
+        <v>1.278736495873192</v>
       </c>
       <c r="G54">
-        <v>0.001045244242011456</v>
+        <v>0.003376557519655017</v>
       </c>
       <c r="H54">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1171303748669457</v>
+        <v>0.1202127531529179</v>
       </c>
       <c r="C55">
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>3234400.178451404</v>
+        <v>3950712.027121453</v>
       </c>
       <c r="E55">
-        <v>301.4889545201676</v>
+        <v>324.3320308653433</v>
       </c>
       <c r="F55">
-        <v>53.04016047617761</v>
+        <v>1.277220734141528</v>
       </c>
       <c r="G55">
-        <v>0.001035194876512218</v>
+        <v>0.003381177856000665</v>
       </c>
       <c r="H55">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1140479965809734</v>
+        <v>0.1171303748669457</v>
       </c>
       <c r="C56">
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>3225369.69766783</v>
+        <v>3950697.214054152</v>
       </c>
       <c r="E56">
-        <v>302.9637135286741</v>
+        <v>324.7229975949666</v>
       </c>
       <c r="F56">
-        <v>54.25724898512539</v>
+        <v>1.275730370720316</v>
       </c>
       <c r="G56">
-        <v>0.001025380219210945</v>
+        <v>0.003385745284904821</v>
       </c>
       <c r="H56">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1109656182950012</v>
+        <v>0.1140479965809734</v>
       </c>
       <c r="C57">
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>3216031.50480354</v>
+        <v>3950682.423125855</v>
       </c>
       <c r="E57">
-        <v>304.4534732515405</v>
+        <v>325.1139516388962</v>
       </c>
       <c r="F57">
-        <v>55.49456175734053</v>
+        <v>1.274265212003231</v>
       </c>
       <c r="G57">
-        <v>0.001015784203295974</v>
+        <v>0.003390259851390675</v>
       </c>
       <c r="H57">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1078832400090289</v>
+        <v>0.1109656182950012</v>
       </c>
       <c r="C58">
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>3206374.222559789</v>
+        <v>3950667.653718965</v>
       </c>
       <c r="E58">
-        <v>305.9576080191691</v>
+        <v>325.5048928041883</v>
       </c>
       <c r="F58">
-        <v>56.75318832560846</v>
+        <v>1.27282506780527</v>
       </c>
       <c r="G58">
-        <v>0.001006391878528441</v>
+        <v>0.003394721600779232</v>
       </c>
       <c r="H58">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1048008617230567</v>
+        <v>0.1078832400090289</v>
       </c>
       <c r="C59">
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>3196385.784048158</v>
+        <v>3950652.905220945</v>
       </c>
       <c r="E59">
-        <v>307.4755146380669</v>
+        <v>325.895820899069</v>
       </c>
       <c r="F59">
-        <v>58.03428691009205</v>
+        <v>1.271409751303281</v>
       </c>
       <c r="G59">
-        <v>0.0009971893340658122</v>
+        <v>0.003399130578698605</v>
       </c>
       <c r="H59">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1017184834370844</v>
+        <v>0.1048008617230567</v>
       </c>
       <c r="C60">
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>3186053.383750919</v>
+        <v>3950638.1770242</v>
       </c>
       <c r="E60">
-        <v>309.0066124279288</v>
+        <v>326.2867357328578</v>
       </c>
       <c r="F60">
-        <v>59.33908932365797</v>
+        <v>1.270019078977331</v>
       </c>
       <c r="G60">
-        <v>0.000988163626302339</v>
+        <v>0.003403486831095298</v>
       </c>
       <c r="H60">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.09863610515111214</v>
+        <v>0.1017184834370844</v>
       </c>
       <c r="C61">
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>3175363.423594766</v>
+        <v>3950623.468525954</v>
       </c>
       <c r="E61">
-        <v>310.5503431278089</v>
+        <v>326.6776371158925</v>
       </c>
       <c r="F61">
-        <v>60.66890658561545</v>
+        <v>1.268652870553906</v>
       </c>
       <c r="G61">
-        <v>0.0009793027113074856</v>
+        <v>0.003407790404242756</v>
       </c>
       <c r="H61">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09555372686513988</v>
+        <v>0.09863610515111214</v>
       </c>
       <c r="C62">
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>3164301.453471988</v>
+        <v>3950608.779128137</v>
       </c>
       <c r="E62">
-        <v>312.106170690235</v>
+        <v>327.0685248594557</v>
       </c>
       <c r="F62">
-        <v>62.02513533308635</v>
+        <v>1.2673109489499</v>
       </c>
       <c r="G62">
-        <v>0.0009705953815171127</v>
+        <v>0.003412041344752984</v>
       </c>
       <c r="H62">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09247134857916763</v>
+        <v>0.09555372686513988</v>
       </c>
       <c r="C63">
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>3152852.105455696</v>
+        <v>3950594.10823727</v>
       </c>
       <c r="E63">
-        <v>313.6735809809883</v>
+        <v>327.4593987757033</v>
       </c>
       <c r="F63">
-        <v>63.40926513169764</v>
+        <v>1.265993140218641</v>
       </c>
       <c r="G63">
-        <v>0.0009620312063862522</v>
+        <v>0.003416239699583705</v>
       </c>
       <c r="H63">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.08938897029319537</v>
+        <v>0.09247134857916763</v>
       </c>
       <c r="C64">
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>3140999.020850403</v>
+        <v>3950579.455264356</v>
       </c>
       <c r="E64">
-        <v>315.2520814009949</v>
+        <v>327.8502586775949</v>
       </c>
       <c r="F64">
-        <v>64.82288680294876</v>
+        <v>1.264699273496445</v>
       </c>
       <c r="G64">
-        <v>0.0009536004767513149</v>
+        <v>0.003420385516049339</v>
       </c>
       <c r="H64">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.08630659200722313</v>
+        <v>0.08938897029319537</v>
       </c>
       <c r="C65">
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>3128724.769092383</v>
+        <v>3950564.819624763</v>
       </c>
       <c r="E65">
-        <v>316.8412004454191</v>
+        <v>328.2411043788261</v>
       </c>
       <c r="F65">
-        <v>66.26770190501796</v>
+        <v>1.263429180950916</v>
       </c>
       <c r="G65">
-        <v>0.0009452941526773795</v>
+        <v>0.003424478841828994</v>
       </c>
       <c r="H65">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.08322421372125087</v>
+        <v>0.08630659200722313</v>
       </c>
       <c r="C66">
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>3116010.757361372</v>
+        <v>3950550.200738123</v>
       </c>
       <c r="E66">
-        <v>318.4404872136681</v>
+        <v>328.6319356937622</v>
       </c>
       <c r="F66">
-        <v>67.74553352765695</v>
+        <v>1.262182697730091</v>
       </c>
       <c r="G66">
-        <v>0.0009371038145856078</v>
+        <v>0.003428519724975951</v>
       </c>
       <c r="H66">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.08014183543527861</v>
+        <v>0.08322421372125087</v>
       </c>
       <c r="C67">
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>3102837.129580702</v>
+        <v>3950535.59802822</v>
       </c>
       <c r="E67">
-        <v>320.0495108826598</v>
+        <v>329.0227524373736</v>
       </c>
       <c r="F67">
-        <v>69.25833859108853</v>
+        <v>1.260959661913039</v>
       </c>
       <c r="G67">
-        <v>0.0009290216174692405</v>
+        <v>0.003432508213925793</v>
       </c>
       <c r="H67">
-        <v>0.002693557475113466</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.07705945714930636</v>
+        <v>0.08014183543527861</v>
       </c>
       <c r="C68">
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>3089182.653259949</v>
+        <v>3950521.010922889</v>
       </c>
       <c r="E68">
-        <v>321.6678601543912</v>
+        <v>329.413554425173</v>
       </c>
       <c r="F68">
-        <v>70.80822187465374</v>
+        <v>1.259759914461379</v>
       </c>
       <c r="G68">
-        <v>0.0009210402480156438</v>
+        <v>0.003436444357505028</v>
       </c>
       <c r="H68">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.0739770788633341</v>
+        <v>0.07705945714930636</v>
       </c>
       <c r="C69">
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>3075024.59236385</v>
+        <v>3950506.43885391</v>
       </c>
       <c r="E69">
-        <v>323.2951426876166</v>
+        <v>329.8043414731541</v>
       </c>
       <c r="F69">
-        <v>72.3974520448598</v>
+        <v>1.258583299172057</v>
       </c>
       <c r="G69">
-        <v>0.0009131528844578625</v>
+        <v>0.003440328204939222</v>
       </c>
       <c r="H69">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.07089470057736184</v>
+        <v>0.0739770788633341</v>
       </c>
       <c r="C70">
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>3060338.56406256</v>
+        <v>3950491.881256908</v>
       </c>
       <c r="E70">
-        <v>324.9309845223066</v>
+        <v>330.1951133977319</v>
       </c>
       <c r="F70">
-        <v>74.02848000642334</v>
+        <v>1.257429662631153</v>
       </c>
       <c r="G70">
-        <v>0.0009053531589829166</v>
+        <v>0.003444159805860656</v>
       </c>
       <c r="H70">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.0678123222913896</v>
+        <v>0.07089470057736184</v>
       </c>
       <c r="C71">
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>3045098.376816926</v>
+        <v>3950477.337571254</v>
       </c>
       <c r="E71">
-        <v>326.575029504535</v>
+        <v>330.5858700156848</v>
       </c>
       <c r="F71">
-        <v>75.703959966417</v>
+        <v>1.256298854168724</v>
       </c>
       <c r="G71">
-        <v>0.0008976351225262859</v>
+        <v>0.003447939210316595</v>
       </c>
       <c r="H71">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.06472994400541734</v>
+        <v>0.0678123222913896</v>
       </c>
       <c r="C72">
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>3029275.846760345</v>
+        <v>3950462.807239965</v>
       </c>
       <c r="E72">
-        <v>328.2269387185303</v>
+        <v>330.976611144098</v>
       </c>
       <c r="F72">
-        <v>77.42677368402819</v>
+        <v>1.255190725814668</v>
       </c>
       <c r="G72">
-        <v>0.0008899932117829944</v>
+        <v>0.003451666468776597</v>
       </c>
       <c r="H72">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.06164756571944509</v>
+        <v>0.06472994400541734</v>
       </c>
       <c r="C73">
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>3012840.588732115</v>
+        <v>3950448.289709608</v>
       </c>
       <c r="E73">
-        <v>329.8863899318505</v>
+        <v>331.3673366003081</v>
       </c>
       <c r="F73">
-        <v>79.20005848105329</v>
+        <v>1.254105132255696</v>
       </c>
       <c r="G73">
-        <v>0.0008824222182655891</v>
+        <v>0.003455341632139778</v>
       </c>
       <c r="H73">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.05856518743347283</v>
+        <v>0.06164756571944509</v>
       </c>
       <c r="C74">
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>2995759.777565494</v>
+        <v>3950433.784430203</v>
       </c>
       <c r="E74">
-        <v>331.5530770589855</v>
+        <v>331.7580462018498</v>
       </c>
       <c r="F74">
-        <v>81.02723971681144</v>
+        <v>1.253041930793234</v>
       </c>
       <c r="G74">
-        <v>0.0008749172592380226</v>
+        <v>0.003458964751741688</v>
       </c>
       <c r="H74">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.05548280914750058</v>
+        <v>0.05856518743347283</v>
       </c>
       <c r="C75">
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>2977997.874296541</v>
+        <v>3950419.290855135</v>
       </c>
       <c r="E75">
-        <v>333.2267096481744</v>
+        <v>332.1487397664036</v>
       </c>
       <c r="F75">
-        <v>82.91206859325172</v>
+        <v>1.252000981302164</v>
       </c>
       <c r="G75">
-        <v>0.0008674737503518527</v>
+        <v>0.0034625358793619</v>
       </c>
       <c r="H75">
-        <v>0.002693557475113461</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.05240043086152833</v>
+        <v>0.05548280914750058</v>
       </c>
       <c r="C76">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D76">
-        <v>2959516.310784053</v>
+        <v>3950404.808441052</v>
       </c>
       <c r="E76">
-        <v>334.9070123958487</v>
+        <v>332.5394171117451</v>
       </c>
       <c r="F76">
-        <v>84.85866636182355</v>
+        <v>1.250982146190594</v>
       </c>
       <c r="G76">
-        <v>0.0008600873798068189</v>
+        <v>0.003466055067230723</v>
       </c>
       <c r="H76">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130646</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.04931805257555607</v>
+        <v>0.05240043086152833</v>
       </c>
       <c r="C77">
         <v>0.06349999999999999</v>
       </c>
       <c r="D77">
-        <v>2940273.124745623</v>
+        <v>3950390.336647784</v>
       </c>
       <c r="E77">
-        <v>336.5937246928795</v>
+        <v>332.9300780556957</v>
       </c>
       <c r="F77">
-        <v>86.87157626689911</v>
+        <v>1.249985290360731</v>
       </c>
       <c r="G77">
-        <v>0.0008527540838512448</v>
+        <v>0.003469522368034913</v>
       </c>
       <c r="H77">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.04623567428958381</v>
+        <v>0.04931805257555607</v>
       </c>
       <c r="C78">
         <v>0.06349999999999999</v>
       </c>
       <c r="D78">
-        <v>2920222.535324753</v>
+        <v>3950375.874938246</v>
       </c>
       <c r="E78">
-        <v>338.2866002067299</v>
+        <v>333.320722416074</v>
       </c>
       <c r="F78">
-        <v>88.9558248998641</v>
+        <v>1.249010281170235</v>
       </c>
       <c r="G78">
-        <v>0.0008454700234280107</v>
+        <v>0.003472937834925055</v>
       </c>
       <c r="H78">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.04315329600361156</v>
+        <v>0.04623567428958381</v>
       </c>
       <c r="C79">
         <v>0.06349999999999999</v>
       </c>
       <c r="D79">
-        <v>2899314.446879852</v>
+        <v>3950361.422778352</v>
       </c>
       <c r="E79">
-        <v>339.9854065037124</v>
+        <v>333.71135001065</v>
       </c>
       <c r="F79">
-        <v>91.11699507912812</v>
+        <v>1.248056988394862</v>
       </c>
       <c r="G79">
-        <v>0.0008382315617580172</v>
+        <v>0.003476301521520737</v>
       </c>
       <c r="H79">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.04007091771763931</v>
+        <v>0.04315329600361156</v>
       </c>
       <c r="C80">
         <v>0.06349999999999999</v>
       </c>
       <c r="D80">
-        <v>2877493.865550856</v>
+        <v>3950346.979636928</v>
       </c>
       <c r="E80">
-        <v>341.6899247158368</v>
+        <v>334.1019606570989</v>
       </c>
       <c r="F80">
-        <v>93.36131294994155</v>
+        <v>1.247125284191499</v>
       </c>
       <c r="G80">
-        <v>0.0008310352426336029</v>
+        <v>0.003479613481918101</v>
       </c>
       <c r="H80">
-        <v>0.002693557475113457</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.03698853943166705</v>
+        <v>0.04007091771763931</v>
       </c>
       <c r="C81">
         <v>0.06349999999999999</v>
       </c>
       <c r="D81">
-        <v>2854700.209068311</v>
+        <v>3950332.544985627</v>
       </c>
       <c r="E81">
-        <v>343.3999492572512</v>
+        <v>334.4925541729573</v>
       </c>
       <c r="F81">
-        <v>95.69575276419825</v>
+        <v>1.246215043062705</v>
       </c>
       <c r="G81">
-        <v>0.0008238777691673239</v>
+        <v>0.003482873770693278</v>
       </c>
       <c r="H81">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.0339061611456948</v>
+        <v>0.03698853943166705</v>
       </c>
       <c r="C82">
         <v>0.06349999999999999</v>
       </c>
       <c r="D82">
-        <v>2830866.484880377</v>
+        <v>3950318.118298841</v>
       </c>
       <c r="E82">
-        <v>345.1152875960624</v>
+        <v>334.8831303755803</v>
       </c>
       <c r="F82">
-        <v>98.12816382564087</v>
+        <v>1.245326141821168</v>
       </c>
       <c r="G82">
-        <v>0.0008167559827040073</v>
+        <v>0.003486082442910519</v>
       </c>
       <c r="H82">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.03082378285972254</v>
+        <v>0.0339061611456948</v>
       </c>
       <c r="C83">
         <v>0.06349999999999999</v>
       </c>
       <c r="D83">
-        <v>2805918.304500192</v>
+        <v>3950303.699053621</v>
       </c>
       <c r="E83">
-        <v>346.8357600884436</v>
+        <v>335.2736890820996</v>
       </c>
       <c r="F83">
-        <v>100.6674254727146</v>
+        <v>1.244458459555801</v>
       </c>
       <c r="G83">
-        <v>0.000809666841552196</v>
+        <v>0.003489239554125677</v>
       </c>
       <c r="H83">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.02774140457375029</v>
+        <v>0.03082378285972254</v>
       </c>
       <c r="C84">
         <v>0.06349999999999999</v>
       </c>
       <c r="D84">
-        <v>2779772.692323486</v>
+        <v>3950289.286729591</v>
       </c>
       <c r="E84">
-        <v>348.5611998834889</v>
+        <v>335.6642301093836</v>
       </c>
       <c r="F84">
-        <v>103.3236378695655</v>
+        <v>1.243611877598002</v>
       </c>
       <c r="G84">
-        <v>0.0008026073991193066</v>
+        <v>0.003492345160392814</v>
       </c>
       <c r="H84">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02465902628777803</v>
+        <v>0.02774140457375029</v>
       </c>
       <c r="C85">
         <v>0.06349999999999999</v>
       </c>
       <c r="D85">
-        <v>2752336.63402233</v>
+        <v>3950274.88080887</v>
       </c>
       <c r="E85">
-        <v>350.2914529093811</v>
+        <v>336.0547532739972</v>
       </c>
       <c r="F85">
-        <v>106.1083590072763</v>
+        <v>1.242786279489149</v>
       </c>
       <c r="G85">
-        <v>0.000795574780935026</v>
+        <v>0.003495399318268038</v>
       </c>
       <c r="H85">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02157664800180578</v>
+        <v>0.02465902628777803</v>
       </c>
       <c r="C86">
         <v>0.06349999999999999</v>
       </c>
       <c r="D86">
-        <v>2723505.291492325</v>
+        <v>3950260.480775988</v>
       </c>
       <c r="E86">
-        <v>352.0263779542981</v>
+        <v>336.4452583921645</v>
       </c>
       <c r="F86">
-        <v>109.0349020164116</v>
+        <v>1.241981550948229</v>
       </c>
       <c r="G86">
-        <v>0.0007885661599076006</v>
+        <v>0.003498402084815833</v>
       </c>
       <c r="H86">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.01849426971583353</v>
+        <v>0.02157664800180578</v>
       </c>
       <c r="C87">
         <v>0.06349999999999999</v>
       </c>
       <c r="D87">
-        <v>2693159.78597814</v>
+        <v>3950246.086117808</v>
       </c>
       <c r="E87">
-        <v>353.7658468593564</v>
+        <v>336.8357452797312</v>
       </c>
       <c r="F87">
-        <v>112.1187121697793</v>
+        <v>1.241197579840851</v>
       </c>
       <c r="G87">
-        <v>0.0007815787289599653</v>
+        <v>0.003501353517612606</v>
       </c>
       <c r="H87">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01541189142986127</v>
+        <v>0.01849426971583353</v>
       </c>
       <c r="C88">
         <v>0.06349999999999999</v>
       </c>
       <c r="D88">
-        <v>2661164.415010151</v>
+        <v>3950231.696323451</v>
       </c>
       <c r="E88">
-        <v>355.5097448461776</v>
+        <v>337.2262137521286</v>
       </c>
       <c r="F88">
-        <v>115.3778506090542</v>
+        <v>1.240434256148612</v>
       </c>
       <c r="G88">
-        <v>0.0007746096699097737</v>
+        <v>0.00350425367475143</v>
       </c>
       <c r="H88">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01232951314388902</v>
+        <v>0.01541189142986127</v>
       </c>
       <c r="C89">
         <v>0.06349999999999999</v>
       </c>
       <c r="D89">
-        <v>2627363.116842223</v>
+        <v>3950217.310884213</v>
       </c>
       <c r="E89">
-        <v>357.257971008951</v>
+        <v>337.6166636243394</v>
       </c>
       <c r="F89">
-        <v>118.8336231314346</v>
+        <v>1.239691471939036</v>
       </c>
       <c r="G89">
-        <v>0.0007676561170471877</v>
+        <v>0.003507102614847016</v>
       </c>
       <c r="H89">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.009247134857916763</v>
+        <v>0.01232951314388902</v>
       </c>
       <c r="C90">
         <v>0.06349999999999999</v>
       </c>
       <c r="D90">
-        <v>2591574.919760363</v>
+        <v>3950202.92929349</v>
       </c>
       <c r="E90">
-        <v>359.0104390110323</v>
+        <v>338.0070947108633</v>
       </c>
       <c r="F90">
-        <v>122.511409392637</v>
+        <v>1.238969121336437</v>
       </c>
       <c r="G90">
-        <v>0.0007607151132596978</v>
+        <v>0.003509900397039556</v>
       </c>
       <c r="H90">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.006164756571944509</v>
+        <v>0.009247134857916763</v>
       </c>
       <c r="C91">
         <v>0.06349999999999999</v>
       </c>
       <c r="D91">
-        <v>2553587.999257123</v>
+        <v>3950188.551046707</v>
       </c>
       <c r="E91">
-        <v>360.7670780405151</v>
+        <v>338.397506825684</v>
       </c>
       <c r="F91">
-        <v>126.4417740753874</v>
+        <v>1.238267100493355</v>
       </c>
       <c r="G91">
-        <v>0.0007537835556459435</v>
+        <v>0.003512647080998577</v>
       </c>
       <c r="H91">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.003082378285972254</v>
+        <v>0.006164756571944509</v>
       </c>
       <c r="C92">
         <v>0.06349999999999999</v>
       </c>
       <c r="D92">
-        <v>2513151.790885417</v>
+        <v>3950174.175641234</v>
       </c>
       <c r="E92">
-        <v>362.5278340999534</v>
+        <v>338.7878997822384</v>
       </c>
       <c r="F92">
-        <v>130.6619828653303</v>
+        <v>1.237585307562668</v>
       </c>
       <c r="G92">
-        <v>0.0007468581261704152</v>
+        <v>0.003515342726926907</v>
       </c>
       <c r="H92">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,25 +2792,51 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>0.003082378285972254</v>
       </c>
       <c r="C93">
         <v>0.06349999999999999</v>
       </c>
       <c r="D93">
-        <v>2469966.33171882</v>
+        <v>3950159.802576323</v>
       </c>
       <c r="E93">
-        <v>364.2926717358835</v>
+        <v>339.1782733933848</v>
       </c>
       <c r="F93">
-        <v>135.2181129499854</v>
+        <v>1.23692364267004</v>
       </c>
       <c r="G93">
-        <v>0.0007399352007310186</v>
+        <v>0.003517987395565053</v>
       </c>
       <c r="H93">
-        <v>0.002693557475113463</v>
+        <v>0.004736826432130644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0.06349999999999999</v>
+      </c>
+      <c r="D94">
+        <v>3950145.431353025</v>
+      </c>
+      <c r="E94">
+        <v>339.5686274713734</v>
+      </c>
+      <c r="F94">
+        <v>1.236282007887567</v>
+      </c>
+      <c r="G94">
+        <v>0.003520581148193607</v>
+      </c>
+      <c r="H94">
+        <v>0.004736826432130644</v>
       </c>
     </row>
   </sheetData>

--- a/RegenSolver/enginefiles/solverdata.xlsx
+++ b/RegenSolver/enginefiles/solverdata.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,25 +426,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2835788023094474</v>
+        <v>0.2804964240234751</v>
       </c>
       <c r="C2">
-        <v>0.03195026651553548</v>
+        <v>0.03147121290958439</v>
       </c>
       <c r="D2">
         <v>4000000</v>
       </c>
       <c r="E2">
-        <v>300</v>
+        <v>283.1374920971622</v>
       </c>
       <c r="F2">
-        <v>0.7904995720722098</v>
+        <v>4.115263123275554</v>
       </c>
       <c r="G2">
-        <v>0.01123956085032268</v>
+        <v>0.004217299545780975</v>
       </c>
       <c r="H2">
-        <v>0.00736992445354484</v>
+        <v>0.00345599140281161</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -452,25 +452,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2804964240234751</v>
+        <v>0.2774140457375029</v>
       </c>
       <c r="C3">
-        <v>0.03112434574304199</v>
+        <v>0.0306093679170835</v>
       </c>
       <c r="D3">
-        <v>3999993.865274093</v>
+        <v>3999912.635429431</v>
       </c>
       <c r="E3">
-        <v>300.1356220676383</v>
+        <v>283.1365828760001</v>
       </c>
       <c r="F3">
-        <v>0.9137972910385227</v>
+        <v>4.329357190232709</v>
       </c>
       <c r="G3">
-        <v>0.01000531677654681</v>
+        <v>0.004179231963339169</v>
       </c>
       <c r="H3">
-        <v>0.006547291861419733</v>
+        <v>0.003425805497417173</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -478,25 +478,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2774140457375029</v>
+        <v>0.2743316674515306</v>
       </c>
       <c r="C4">
-        <v>0.03029842497054849</v>
+        <v>0.02969828461214734</v>
       </c>
       <c r="D4">
-        <v>3999872.790943056</v>
+        <v>3999232.12391485</v>
       </c>
       <c r="E4">
-        <v>300.2830659185763</v>
+        <v>283.1295001467725</v>
       </c>
       <c r="F4">
-        <v>1.056538451184778</v>
+        <v>4.616537784438475</v>
       </c>
       <c r="G4">
-        <v>0.008912343935593692</v>
+        <v>0.004101743240448216</v>
       </c>
       <c r="H4">
-        <v>0.005809895099225876</v>
+        <v>0.003349568644821113</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -504,25 +504,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2743316674515306</v>
+        <v>0.2712492891655584</v>
       </c>
       <c r="C5">
-        <v>0.029472504198055</v>
+        <v>0.02872847700876699</v>
       </c>
       <c r="D5">
-        <v>3999710.161967827</v>
+        <v>3998288.737782274</v>
       </c>
       <c r="E5">
-        <v>300.4435294797084</v>
+        <v>283.1196799507615</v>
       </c>
       <c r="F5">
-        <v>1.222236417506977</v>
+        <v>5.00379377989466</v>
       </c>
       <c r="G5">
-        <v>0.007941593847992413</v>
+        <v>0.003979379384703383</v>
       </c>
       <c r="H5">
-        <v>0.005148374855221433</v>
+        <v>0.00322319990994875</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -530,25 +530,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2712492891655584</v>
+        <v>0.2681669108795861</v>
       </c>
       <c r="C6">
-        <v>0.02864658342556152</v>
+        <v>0.02769164210352534</v>
       </c>
       <c r="D6">
-        <v>3999490.975608052</v>
+        <v>3996944.041931648</v>
       </c>
       <c r="E6">
-        <v>300.6183745788207</v>
+        <v>283.1056793376641</v>
       </c>
       <c r="F6">
-        <v>1.415180119541453</v>
+        <v>5.530058230235171</v>
       </c>
       <c r="G6">
-        <v>0.007077018891383948</v>
+        <v>0.003808321093988314</v>
       </c>
       <c r="H6">
-        <v>0.004554573613613691</v>
+        <v>0.00304495169516637</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -556,25 +556,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2681669108795861</v>
+        <v>0.2650845325936139</v>
       </c>
       <c r="C7">
-        <v>0.02782066265306801</v>
+        <v>0.02659930764143218</v>
       </c>
       <c r="D7">
-        <v>3999194.337420213</v>
+        <v>3994965.178941044</v>
       </c>
       <c r="E7">
-        <v>300.8091573863322</v>
+        <v>283.085069581197</v>
       </c>
       <c r="F7">
-        <v>1.640647027104844</v>
+        <v>6.233448785467796</v>
       </c>
       <c r="G7">
-        <v>0.006305019515443807</v>
+        <v>0.00359509020147115</v>
       </c>
       <c r="H7">
-        <v>0.004021347119569489</v>
+        <v>0.002824041829782437</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -582,25 +582,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2650845325936139</v>
+        <v>0.2620021543076416</v>
       </c>
       <c r="C8">
-        <v>0.02699474188057452</v>
+        <v>0.02547943545559284</v>
       </c>
       <c r="D8">
-        <v>3998790.881068564</v>
+        <v>3992028.853448772</v>
       </c>
       <c r="E8">
-        <v>301.017666617248</v>
+        <v>283.0544739224505</v>
       </c>
       <c r="F8">
-        <v>1.905190853428508</v>
+        <v>7.14751005095188</v>
       </c>
       <c r="G8">
-        <v>0.005614000588645147</v>
+        <v>0.003354430973389259</v>
       </c>
       <c r="H8">
-        <v>0.003542408082464203</v>
+        <v>0.002577905378199628</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -608,25 +608,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2620021543076416</v>
+        <v>0.2589197760216694</v>
       </c>
       <c r="C9">
-        <v>0.02616882110808103</v>
+        <v>0.02436048350403403</v>
       </c>
       <c r="D9">
-        <v>3998238.901605249</v>
+        <v>3987701.013036409</v>
       </c>
       <c r="E9">
-        <v>301.2459722309822</v>
+        <v>283.009348592744</v>
       </c>
       <c r="F9">
-        <v>2.217038422912341</v>
+        <v>8.31025923883935</v>
       </c>
       <c r="G9">
-        <v>0.004994010799898742</v>
+        <v>0.003100925195501304</v>
       </c>
       <c r="H9">
-        <v>0.003112194912434481</v>
+        <v>0.002323263182718481</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -634,25 +634,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2589197760216694</v>
+        <v>0.2558373977356971</v>
       </c>
       <c r="C10">
-        <v>0.02534290033558753</v>
+        <v>0.02327090974478244</v>
       </c>
       <c r="D10">
-        <v>3997478.455783358</v>
+        <v>3981353.32347323</v>
       </c>
       <c r="E10">
-        <v>301.4964887349852</v>
+        <v>282.9430969485416</v>
       </c>
       <c r="F10">
-        <v>2.586651822244989</v>
+        <v>9.760531925005839</v>
       </c>
       <c r="G10">
-        <v>0.004436443671906931</v>
+        <v>0.002847541127031827</v>
       </c>
       <c r="H10">
-        <v>0.002725759255967703</v>
+        <v>0.002074522731885093</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,25 +660,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.2558373977356971</v>
+        <v>0.2527550194497248</v>
       </c>
       <c r="C11">
-        <v>0.02451697956309404</v>
+        <v>0.02223917213586479</v>
       </c>
       <c r="D11">
-        <v>3996422.164596082</v>
+        <v>3972116.168380611</v>
       </c>
       <c r="E11">
-        <v>301.7720594940439</v>
+        <v>282.8465473248858</v>
       </c>
       <c r="F11">
-        <v>3.027552261902027</v>
+        <v>11.53020846630289</v>
       </c>
       <c r="G11">
-        <v>0.003933780971567453</v>
+        <v>0.00260485410127745</v>
       </c>
       <c r="H11">
-        <v>0.002378666209604144</v>
+        <v>0.001843003465859827</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -686,25 +686,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2527550194497248</v>
+        <v>0.2496726411637526</v>
       </c>
       <c r="C12">
-        <v>0.02369105879060053</v>
+        <v>0.02129372863530783</v>
       </c>
       <c r="D12">
-        <v>3994940.488568261</v>
+        <v>3958873.039096082</v>
       </c>
       <c r="E12">
-        <v>302.0760725532701</v>
+        <v>282.7078347995973</v>
       </c>
       <c r="F12">
-        <v>3.55758327279418</v>
+        <v>13.63126203636558</v>
       </c>
       <c r="G12">
-        <v>0.003479357644122252</v>
+        <v>0.002380732904408604</v>
       </c>
       <c r="H12">
-        <v>0.002066899738770377</v>
+        <v>0.001636755102339971</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -712,25 +712,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.2496726411637526</v>
+        <v>0.2465902628777804</v>
       </c>
       <c r="C13">
-        <v>0.02286513801810705</v>
+        <v>0.02046303720113823</v>
       </c>
       <c r="D13">
-        <v>3992837.338258068</v>
+        <v>3940363.70400899</v>
       </c>
       <c r="E13">
-        <v>302.4126263743237</v>
+        <v>282.5133842962553</v>
       </c>
       <c r="F13">
-        <v>4.20097139219776</v>
+        <v>16.03696865627066</v>
       </c>
       <c r="G13">
-        <v>0.003067117776445318</v>
+        <v>0.00218042788026477</v>
       </c>
       <c r="H13">
-        <v>0.001786761118420613</v>
+        <v>0.001460859107587135</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -738,25 +738,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.2465902628777804</v>
+        <v>0.2435078845918081</v>
       </c>
       <c r="C14">
-        <v>0.02203921724561356</v>
+        <v>0.01977555579138271</v>
       </c>
       <c r="D14">
-        <v>3989807.787273659</v>
+        <v>3915497.954921107</v>
       </c>
       <c r="E14">
-        <v>302.7867804966162</v>
+        <v>282.2510868780988</v>
       </c>
       <c r="F14">
-        <v>4.991999079139462</v>
+        <v>18.65899267221441</v>
       </c>
       <c r="G14">
-        <v>0.00269129971451381</v>
+        <v>0.002006961126605323</v>
       </c>
       <c r="H14">
-        <v>0.001534733902956449</v>
+        <v>0.001318056975378243</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -764,25 +764,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.2435078845918081</v>
+        <v>0.2404255063058358</v>
       </c>
       <c r="C15">
-        <v>0.02121329647312005</v>
+        <v>0.01925974236406801</v>
       </c>
       <c r="D15">
-        <v>3985359.808951103</v>
+        <v>3883970.148436316</v>
       </c>
       <c r="E15">
-        <v>303.2049655335767</v>
+        <v>281.9167330813584</v>
       </c>
       <c r="F15">
-        <v>5.982482277016405</v>
+        <v>21.32651792613223</v>
       </c>
       <c r="G15">
-        <v>0.002345881515107079</v>
+        <v>0.001861717807214388</v>
       </c>
       <c r="H15">
-        <v>0.001307240704553732</v>
+        <v>0.001209550784472651</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -790,25 +790,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.2404255063058358</v>
+        <v>0.2373431280198636</v>
       </c>
       <c r="C16">
-        <v>0.02038737570062656</v>
+        <v>0.01894405487722081</v>
       </c>
       <c r="D16">
-        <v>3978654.02736795</v>
+        <v>3847128.278510913</v>
       </c>
       <c r="E16">
-        <v>303.6757370829982</v>
+        <v>281.5234663131841</v>
       </c>
       <c r="F16">
-        <v>7.260653845222199</v>
+        <v>23.7794213868855</v>
       </c>
       <c r="G16">
-        <v>0.002023161061402415</v>
+        <v>0.001745143202354685</v>
       </c>
       <c r="H16">
-        <v>0.001100010222100193</v>
+        <v>0.001135855273426894</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -816,25 +816,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2373431280198636</v>
+        <v>0.2342607497338913</v>
       </c>
       <c r="C17">
-        <v>0.01956145492813306</v>
+        <v>0.01885870622756194</v>
       </c>
       <c r="D17">
-        <v>3968112.852870939</v>
+        <v>3808732.648993281</v>
       </c>
       <c r="E17">
-        <v>304.2114532849329</v>
+        <v>281.1106364712205</v>
       </c>
       <c r="F17">
-        <v>9.023115090588794</v>
+        <v>26.02496703385278</v>
       </c>
       <c r="G17">
-        <v>0.001707734577503697</v>
+        <v>0.001635931692649604</v>
       </c>
       <c r="H17">
-        <v>0.0009053521563015857</v>
+        <v>0.001079952835490984</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -842,25 +842,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2342607497338913</v>
+        <v>0.2311783714479191</v>
       </c>
       <c r="C18">
-        <v>0.01911027116091851</v>
+        <v>0.01912428449950666</v>
       </c>
       <c r="D18">
-        <v>3950043.960927637</v>
+        <v>3769505.614308856</v>
       </c>
       <c r="E18">
-        <v>304.8336880123862</v>
+        <v>280.6856767694861</v>
       </c>
       <c r="F18">
-        <v>12.99953612718812</v>
+        <v>29.03833710962365</v>
       </c>
       <c r="G18">
-        <v>0.001218077766272745</v>
+        <v>0.001460175657780327</v>
       </c>
       <c r="H18">
-        <v>0.0006514576687856235</v>
+        <v>0.000981323373974893</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -868,25 +868,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2311783714479191</v>
+        <v>0.2280959931619468</v>
       </c>
       <c r="C19">
-        <v>0.02088988309406883</v>
+        <v>0.01977667194772571</v>
       </c>
       <c r="D19">
-        <v>3892276.258239083</v>
+        <v>3712860.358115136</v>
       </c>
       <c r="E19">
-        <v>305.6735086714751</v>
+        <v>280.0662164506572</v>
       </c>
       <c r="F19">
-        <v>12.11086986187574</v>
+        <v>30.43296320054442</v>
       </c>
       <c r="G19">
-        <v>0.001180317897014037</v>
+        <v>0.001347483910922168</v>
       </c>
       <c r="H19">
-        <v>0.0006897390448762854</v>
+        <v>0.0009453626872037103</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -894,25 +894,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2280959931619468</v>
+        <v>0.2250136148759746</v>
       </c>
       <c r="C20">
-        <v>0.02266949502721918</v>
+        <v>0.02078193744327912</v>
       </c>
       <c r="D20">
-        <v>3897704.209484585</v>
+        <v>3679490.345249095</v>
       </c>
       <c r="E20">
-        <v>306.5401044315029</v>
+        <v>279.6980175013397</v>
       </c>
       <c r="F20">
-        <v>10.60983243353562</v>
+        <v>30.18742988415426</v>
       </c>
       <c r="G20">
-        <v>0.001227950137116804</v>
+        <v>0.001282677965946509</v>
       </c>
       <c r="H20">
-        <v>0.0007720860834913208</v>
+        <v>0.0009545331619201829</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -920,25 +920,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.2250136148759746</v>
+        <v>0.2219312365900023</v>
       </c>
       <c r="C21">
-        <v>0.02444910696036953</v>
+        <v>0.02210614985722696</v>
       </c>
       <c r="D21">
-        <v>3909741.204661296</v>
+        <v>3672107.821588366</v>
       </c>
       <c r="E21">
-        <v>307.3806516872154</v>
+        <v>279.6162275351236</v>
       </c>
       <c r="F21">
-        <v>9.245845366341856</v>
+        <v>28.68825366572095</v>
       </c>
       <c r="G21">
-        <v>0.001294484742578536</v>
+        <v>0.001253286530689337</v>
       </c>
       <c r="H21">
-        <v>0.000868808986799901</v>
+        <v>0.000998678238579094</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -946,25 +946,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.2219312365900023</v>
+        <v>0.2188488583040301</v>
       </c>
       <c r="C22">
-        <v>0.02622871889351988</v>
+        <v>0.02371537806062926</v>
       </c>
       <c r="D22">
-        <v>3919576.454932613</v>
+        <v>3683497.491091648</v>
       </c>
       <c r="E22">
-        <v>308.1868410001916</v>
+        <v>279.7423614603844</v>
       </c>
       <c r="F22">
-        <v>8.081220081545366</v>
+        <v>26.44209836584543</v>
       </c>
       <c r="G22">
-        <v>0.001369682479631713</v>
+        <v>0.001250152015036472</v>
       </c>
       <c r="H22">
-        <v>0.0009754618321806099</v>
+        <v>0.001071472966050713</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -972,25 +972,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.2188488583040301</v>
+        <v>0.2157664800180578</v>
       </c>
       <c r="C23">
-        <v>0.0280083308266702</v>
+        <v>0.02557569092454608</v>
       </c>
       <c r="D23">
-        <v>3926996.004683109</v>
+        <v>3704043.194404657</v>
       </c>
       <c r="E23">
-        <v>308.9577664239329</v>
+        <v>279.9691674866548</v>
       </c>
       <c r="F23">
-        <v>7.100539526918999</v>
+        <v>23.89454788317372</v>
       </c>
       <c r="G23">
-        <v>0.001449889373698406</v>
+        <v>0.001266362489867692</v>
       </c>
       <c r="H23">
-        <v>0.001090450802385665</v>
+        <v>0.0011685024066644</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -998,25 +998,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2157664800180578</v>
+        <v>0.2126841017320855</v>
       </c>
       <c r="C24">
-        <v>0.02978794275982054</v>
+        <v>0.02765315732003749</v>
       </c>
       <c r="D24">
-        <v>3932512.609335921</v>
+        <v>3726382.523296358</v>
       </c>
       <c r="E24">
-        <v>309.6948043649172</v>
+        <v>280.2147226281712</v>
       </c>
       <c r="F24">
-        <v>6.275401410031018</v>
+        <v>21.35329956557864</v>
       </c>
       <c r="G24">
-        <v>0.001533393440821631</v>
+        <v>0.001296669697592697</v>
       </c>
       <c r="H24">
-        <v>0.001213007932862424</v>
+        <v>0.00128619547774779</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2126841017320855</v>
+        <v>0.2096017234461133</v>
       </c>
       <c r="C25">
-        <v>0.03156755469297089</v>
+        <v>0.02991384611816349</v>
       </c>
       <c r="D25">
-        <v>3936625.271176584</v>
+        <v>3746544.101189638</v>
       </c>
       <c r="E25">
-        <v>310.4000756401987</v>
+        <v>280.4354086479527</v>
       </c>
       <c r="F25">
-        <v>5.578453507702045</v>
+        <v>18.9926909613937</v>
       </c>
       <c r="G25">
-        <v>0.001619263087855891</v>
+        <v>0.001337068876687423</v>
       </c>
       <c r="H25">
-        <v>0.001342694362838181</v>
+        <v>0.001421232666709389</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,25 +1050,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.2096017234461133</v>
+        <v>0.206519345160141</v>
       </c>
       <c r="C26">
-        <v>0.03334716662612121</v>
+        <v>0.03232382618998419</v>
       </c>
       <c r="D26">
-        <v>3939717.502369295</v>
+        <v>3763106.419848557</v>
       </c>
       <c r="E26">
-        <v>311.0758737953861</v>
+        <v>280.6160424436337</v>
       </c>
       <c r="F26">
-        <v>4.986467652153257</v>
+        <v>16.89092227601924</v>
       </c>
       <c r="G26">
-        <v>0.001706939717117927</v>
+        <v>0.00138444884917575</v>
       </c>
       <c r="H26">
-        <v>0.001479228766495999</v>
+        <v>0.001570228252429992</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1076,25 +1076,25 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.206519345160141</v>
+        <v>0.2034369668741688</v>
       </c>
       <c r="C27">
-        <v>0.03512677855927156</v>
+        <v>0.03484916640655957</v>
       </c>
       <c r="D27">
-        <v>3942067.142239021</v>
+        <v>3776028.198121001</v>
       </c>
       <c r="E27">
-        <v>311.7244360311187</v>
+        <v>280.7565639588398</v>
       </c>
       <c r="F27">
-        <v>4.480510572328723</v>
+        <v>15.06784923383627</v>
       </c>
       <c r="G27">
-        <v>0.001796064483787533</v>
+        <v>0.001436321285922571</v>
       </c>
       <c r="H27">
-        <v>0.001622415158561564</v>
+        <v>0.001729577819518405</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1102,25 +1102,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.2034369668741688</v>
+        <v>0.2003545885881965</v>
       </c>
       <c r="C28">
-        <v>0.03690639049242189</v>
+        <v>0.03745593563894975</v>
       </c>
       <c r="D28">
-        <v>3943872.361082206</v>
+        <v>3785826.918371374</v>
       </c>
       <c r="E28">
-        <v>312.3478532804622</v>
+        <v>280.8628861923682</v>
       </c>
       <c r="F28">
-        <v>4.04536416377322</v>
+        <v>13.51243534915181</v>
       </c>
       <c r="G28">
-        <v>0.001886394559814423</v>
+        <v>0.001490630954696866</v>
       </c>
       <c r="H28">
-        <v>0.001772108187467068</v>
+        <v>0.001895408782914716</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1128,25 +1128,25 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.2003545885881965</v>
+        <v>0.1972722103022243</v>
       </c>
       <c r="C29">
-        <v>0.03868600242557224</v>
+        <v>0.04011020275821471</v>
       </c>
       <c r="D29">
-        <v>3945274.492034701</v>
+        <v>3793146.048847474</v>
       </c>
       <c r="E29">
-        <v>312.9480409147005</v>
+        <v>280.9421707024297</v>
       </c>
       <c r="F29">
-        <v>3.668833165882448</v>
+        <v>12.1997975342345</v>
       </c>
       <c r="G29">
-        <v>0.001977758747139886</v>
+        <v>0.001545630780090566</v>
       </c>
       <c r="H29">
-        <v>0.001928194736920391</v>
+        <v>0.002063596947899067</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1154,25 +1154,25 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1972722103022243</v>
+        <v>0.194189832016252</v>
       </c>
       <c r="C30">
-        <v>0.04046561435872258</v>
+        <v>0.04277803663541454</v>
       </c>
       <c r="D30">
-        <v>3946374.971500841</v>
+        <v>3798572.520657118</v>
       </c>
       <c r="E30">
-        <v>313.5267365291782</v>
+        <v>281.0008800053529</v>
       </c>
       <c r="F30">
-        <v>3.34112492518487</v>
+        <v>11.10078830789187</v>
       </c>
       <c r="G30">
-        <v>0.002070032242680598</v>
+        <v>0.001599801711848171</v>
       </c>
       <c r="H30">
-        <v>0.002090583406089871</v>
+        <v>0.002229826080327799</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.194189832016252</v>
+        <v>0.1911074537302798</v>
       </c>
       <c r="C31">
-        <v>0.04224522629187291</v>
+        <v>0.04542550614160931</v>
       </c>
       <c r="D31">
-        <v>3947247.265667446</v>
+        <v>3802581.605093499</v>
       </c>
       <c r="E31">
-        <v>314.0855095416194</v>
+        <v>281.0442146995964</v>
       </c>
       <c r="F31">
-        <v>3.054341045588143</v>
+        <v>10.18693229778632</v>
       </c>
       <c r="G31">
-        <v>0.002163121479169514</v>
+        <v>0.001651801458790525</v>
       </c>
       <c r="H31">
-        <v>0.002259198117932249</v>
+        <v>0.002389675302229469</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1911074537302798</v>
+        <v>0.1880250754443075</v>
       </c>
       <c r="C32">
-        <v>0.04402483822502326</v>
+        <v>0.04801868014785901</v>
       </c>
       <c r="D32">
-        <v>3947945.127798442</v>
+        <v>3805536.289095571</v>
       </c>
       <c r="E32">
-        <v>314.6257754019526</v>
+        <v>281.0761306301566</v>
       </c>
       <c r="F32">
-        <v>2.802075221430698</v>
+        <v>9.432699267636105</v>
       </c>
       <c r="G32">
-        <v>0.002256954604008654</v>
+        <v>0.001700431322987158</v>
       </c>
       <c r="H32">
-        <v>0.002433974036406801</v>
+        <v>0.002538723667132942</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1232,25 +1232,25 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1880250754443075</v>
+        <v>0.1849426971583353</v>
       </c>
       <c r="C33">
-        <v>0.04580445015817358</v>
+        <v>0.05052362752522375</v>
       </c>
       <c r="D33">
-        <v>3948508.302150317</v>
+        <v>3807705.163864641</v>
       </c>
       <c r="E33">
-        <v>315.1488109797376</v>
+        <v>281.0995467402558</v>
       </c>
       <c r="F33">
-        <v>2.579099607879422</v>
+        <v>8.816347517812234</v>
       </c>
       <c r="G33">
-        <v>0.002351475274927634</v>
+        <v>0.001744614326505328</v>
       </c>
       <c r="H33">
-        <v>0.002614854846450544</v>
+        <v>0.002672664025421777</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1258,25 +1258,25 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1849426971583353</v>
+        <v>0.181860318872363</v>
       </c>
       <c r="C34">
-        <v>0.04758406209132393</v>
+        <v>0.05290641714476352</v>
       </c>
       <c r="D34">
-        <v>3948966.481212219</v>
+        <v>3809283.329101639</v>
       </c>
       <c r="E34">
-        <v>315.6557695226739</v>
+        <v>281.1165790960732</v>
       </c>
       <c r="F34">
-        <v>2.381121351582015</v>
+        <v>8.320057652429369</v>
       </c>
       <c r="G34">
-        <v>0.002446638489759794</v>
+        <v>0.001783380409306842</v>
       </c>
       <c r="H34">
-        <v>0.002801790875666073</v>
+        <v>0.002787420074674693</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1284,25 +1284,25 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.181860318872363</v>
+        <v>0.1787779405863907</v>
       </c>
       <c r="C35">
-        <v>0.04936367402447427</v>
+        <v>0.05513311787753842</v>
       </c>
       <c r="D35">
-        <v>3949342.071876644</v>
+        <v>3810410.667709649</v>
       </c>
       <c r="E35">
-        <v>316.1476944859838</v>
+        <v>281.1287427084776</v>
       </c>
       <c r="F35">
-        <v>2.204593504445203</v>
+        <v>7.9297604267602</v>
       </c>
       <c r="G35">
-        <v>0.002542407708079244</v>
+        <v>0.001815856074949508</v>
       </c>
       <c r="H35">
-        <v>0.002994737756339128</v>
+        <v>0.002879261730710969</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1787779405863907</v>
+        <v>0.1756955623004185</v>
       </c>
       <c r="C36">
-        <v>0.05114328595762462</v>
+        <v>0.05716979859460847</v>
       </c>
       <c r="D36">
-        <v>3949652.146584837</v>
+        <v>3811186.087487423</v>
       </c>
       <c r="E36">
-        <v>316.6255319847562</v>
+        <v>281.1371076878395</v>
       </c>
       <c r="F36">
-        <v>2.046567714233628</v>
+        <v>7.634879842670844</v>
       </c>
       <c r="G36">
-        <v>0.002638752818324801</v>
+        <v>0.001841256836149879</v>
       </c>
       <c r="H36">
-        <v>0.003193655446218755</v>
+        <v>0.002944914878036174</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1336,25 +1336,25 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1756955623004185</v>
+        <v>0.1726131840144463</v>
       </c>
       <c r="C37">
-        <v>0.05292289789077495</v>
+        <v>0.05898252816703371</v>
       </c>
       <c r="D37">
-        <v>3949909.83296599</v>
+        <v>3811677.915906136</v>
       </c>
       <c r="E37">
-        <v>317.0901418437923</v>
+        <v>281.1424127224436</v>
       </c>
       <c r="F37">
-        <v>1.904578934551343</v>
+        <v>7.42811336305786</v>
       </c>
       <c r="G37">
-        <v>0.00273564867278473</v>
+        <v>0.001858881411819674</v>
       </c>
       <c r="H37">
-        <v>0.003398507494563323</v>
+        <v>0.002981662282785112</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1362,25 +1362,25 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1726131840144463</v>
+        <v>0.169530805728474</v>
       </c>
       <c r="C38">
-        <v>0.05470250982392529</v>
+        <v>0.06053737546587424</v>
       </c>
       <c r="D38">
-        <v>3950125.313346889</v>
+        <v>3811931.069092484</v>
       </c>
       <c r="E38">
-        <v>317.5423073238456</v>
+        <v>281.1451431245615</v>
       </c>
       <c r="F38">
-        <v>1.776554709105386</v>
+        <v>7.305322344166794</v>
       </c>
       <c r="G38">
-        <v>0.002833074012746338</v>
+        <v>0.001868107002423306</v>
       </c>
       <c r="H38">
-        <v>0.003609260480268783</v>
+        <v>0.002987433043429179</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1388,25 +1388,25 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.169530805728474</v>
+        <v>0.1664484274425017</v>
       </c>
       <c r="C39">
-        <v>0.05648212175707563</v>
+        <v>0.06180040936219006</v>
       </c>
       <c r="D39">
-        <v>3950306.550691011</v>
+        <v>3811971.58649707</v>
       </c>
       <c r="E39">
-        <v>317.982743646519</v>
+        <v>281.1455801155286</v>
       </c>
       <c r="F39">
-        <v>1.660743380867881</v>
+        <v>7.265588775774889</v>
       </c>
       <c r="G39">
-        <v>0.002931010667154558</v>
+        <v>0.001868385210675426</v>
       </c>
       <c r="H39">
-        <v>0.003825883573540224</v>
+        <v>0.00296087845194886</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1414,25 +1414,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1664484274425017</v>
+        <v>0.1633660491565295</v>
       </c>
       <c r="C40">
-        <v>0.05826173369022596</v>
+        <v>0.06273769872704123</v>
       </c>
       <c r="D40">
-        <v>3950459.820870203</v>
+        <v>3811808.91533398</v>
       </c>
       <c r="E40">
-        <v>318.4121054523016</v>
+        <v>281.1438256430505</v>
       </c>
       <c r="F40">
-        <v>1.555656942522196</v>
+        <v>7.311500405119482</v>
       </c>
       <c r="G40">
-        <v>0.003029442946447222</v>
+        <v>0.001859238332523159</v>
       </c>
       <c r="H40">
-        <v>0.004048348188090698</v>
+        <v>0.002901432563440843</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1440,25 +1440,25 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1633660491565295</v>
+        <v>0.1602836708705572</v>
       </c>
       <c r="C41">
-        <v>0.0600413456233763</v>
+        <v>0.0633153124314878</v>
       </c>
       <c r="D41">
-        <v>3950590.106526401</v>
+        <v>3811436.03585875</v>
       </c>
       <c r="E41">
-        <v>318.8309933230678</v>
+        <v>281.1398037822997</v>
       </c>
       <c r="F41">
-        <v>1.460025273560644</v>
+        <v>7.449754387272674</v>
       </c>
       <c r="G41">
-        <v>0.003128357178056612</v>
+        <v>0.001840255850868544</v>
       </c>
       <c r="H41">
-        <v>0.00427662770106817</v>
+        <v>0.002809356139441546</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1466,25 +1466,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1602836708705572</v>
+        <v>0.157201292584585</v>
       </c>
       <c r="C42">
-        <v>0.06182095755652664</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D42">
-        <v>3950701.391088206</v>
+        <v>3810827.127218978</v>
       </c>
       <c r="E42">
-        <v>319.2399594901325</v>
+        <v>281.133235496303</v>
       </c>
       <c r="F42">
-        <v>1.372759282530664</v>
+        <v>7.684969395246523</v>
       </c>
       <c r="G42">
-        <v>0.003227741345791986</v>
+        <v>0.001812779293413803</v>
       </c>
       <c r="H42">
-        <v>0.004510697223960559</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1492,25 +1492,25 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.157201292584585</v>
+        <v>0.1541189142986127</v>
       </c>
       <c r="C43">
         <v>0.06349999999999997</v>
       </c>
       <c r="D43">
-        <v>3950796.880106163</v>
+        <v>3809951.88801959</v>
       </c>
       <c r="E43">
-        <v>319.6395128361546</v>
+        <v>281.1237929478594</v>
       </c>
       <c r="F43">
-        <v>1.297145223607922</v>
+        <v>7.85785770859404</v>
       </c>
       <c r="G43">
-        <v>0.003322229269117357</v>
+        <v>0.001808545124045678</v>
       </c>
       <c r="H43">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1541189142986127</v>
+        <v>0.1510365360126405</v>
       </c>
       <c r="C44">
         <v>0.06349999999999997</v>
       </c>
       <c r="D44">
-        <v>3950876.614019328</v>
+        <v>3809228.562621419</v>
       </c>
       <c r="E44">
-        <v>320.0306161842137</v>
+        <v>281.115988115984</v>
       </c>
       <c r="F44">
-        <v>1.295336187129712</v>
+        <v>8.037712655821688</v>
       </c>
       <c r="G44">
-        <v>0.003327434532576602</v>
+        <v>0.001804343270715657</v>
       </c>
       <c r="H44">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1510365360126405</v>
+        <v>0.1479541577266682</v>
       </c>
       <c r="C45">
         <v>0.06349999999999997</v>
       </c>
       <c r="D45">
-        <v>3950861.515180379</v>
+        <v>3808478.570443744</v>
       </c>
       <c r="E45">
-        <v>320.4217093044151</v>
+        <v>281.1078943865837</v>
       </c>
       <c r="F45">
-        <v>1.293554995486707</v>
+        <v>8.225212800345545</v>
       </c>
       <c r="G45">
-        <v>0.003332586362042118</v>
+        <v>0.001800137830341874</v>
       </c>
       <c r="H45">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1570,25 +1570,25 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1479541577266682</v>
+        <v>0.144871779440696</v>
       </c>
       <c r="C46">
         <v>0.06349999999999997</v>
       </c>
       <c r="D46">
-        <v>3950846.445551637</v>
+        <v>3807699.724628294</v>
       </c>
       <c r="E46">
-        <v>320.8127919625714</v>
+        <v>281.0994880282456</v>
       </c>
       <c r="F46">
-        <v>1.291801340627015</v>
+        <v>8.420849340513646</v>
       </c>
       <c r="G46">
-        <v>0.003337684847752845</v>
+        <v>0.001795929122205837</v>
       </c>
       <c r="H46">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1596,25 +1596,25 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.144871779440696</v>
+        <v>0.1417894011547237</v>
       </c>
       <c r="C47">
         <v>0.06349999999999997</v>
       </c>
       <c r="D47">
-        <v>3950831.404544226</v>
+        <v>3806890.289709372</v>
       </c>
       <c r="E47">
-        <v>321.203863947205</v>
+        <v>281.0907501633815</v>
       </c>
       <c r="F47">
-        <v>1.290074991106368</v>
+        <v>8.625155524824349</v>
       </c>
       <c r="G47">
-        <v>0.003342730032376083</v>
+        <v>0.001791717618856923</v>
       </c>
       <c r="H47">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1622,25 +1622,25 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1417894011547237</v>
+        <v>0.1387070228687514</v>
       </c>
       <c r="C48">
         <v>0.06349999999999997</v>
       </c>
       <c r="D48">
-        <v>3950816.391482831</v>
+        <v>3806048.387356257</v>
       </c>
       <c r="E48">
-        <v>321.5949250489916</v>
+        <v>281.0816603542465</v>
       </c>
       <c r="F48">
-        <v>1.288375719585105</v>
+        <v>8.838712212910123</v>
       </c>
       <c r="G48">
-        <v>0.003347721958761773</v>
+        <v>0.001787503827550802</v>
       </c>
       <c r="H48">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1648,25 +1648,25 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.1387070228687514</v>
+        <v>0.1356246445827792</v>
       </c>
       <c r="C49">
         <v>0.06349999999999997</v>
       </c>
       <c r="D49">
-        <v>3950801.40569853</v>
+        <v>3805171.978659316</v>
       </c>
       <c r="E49">
-        <v>321.9859750606593</v>
+        <v>281.072196409158</v>
       </c>
       <c r="F49">
-        <v>1.286703302752648</v>
+        <v>9.062153330172571</v>
       </c>
       <c r="G49">
-        <v>0.003352660669953164</v>
+        <v>0.001783288291561388</v>
       </c>
       <c r="H49">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,25 +1674,25 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1356246445827792</v>
+        <v>0.1325422662968069</v>
       </c>
       <c r="C50">
         <v>0.06349999999999997</v>
       </c>
       <c r="D50">
-        <v>3950786.446528645</v>
+        <v>3804258.846274744</v>
       </c>
       <c r="E50">
-        <v>322.3770137768907</v>
+        <v>281.0623341867554</v>
       </c>
       <c r="F50">
-        <v>1.28505752125305</v>
+        <v>9.296172089087641</v>
       </c>
       <c r="G50">
-        <v>0.003357546209200528</v>
+        <v>0.001779071591858085</v>
       </c>
       <c r="H50">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1700,25 +1700,25 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1325422662968069</v>
+        <v>0.1294598880108347</v>
       </c>
       <c r="C51">
         <v>0.06349999999999997</v>
       </c>
       <c r="D51">
-        <v>3950771.513316608</v>
+        <v>3803306.574109381</v>
       </c>
       <c r="E51">
-        <v>322.7680409942274</v>
+        <v>281.0520473731936</v>
       </c>
       <c r="F51">
-        <v>1.283438159612679</v>
+        <v>9.541528110042977</v>
       </c>
       <c r="G51">
-        <v>0.003362378619972638</v>
+        <v>0.001774854348686851</v>
       </c>
       <c r="H51">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1726,25 +1726,25 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1294598880108347</v>
+        <v>0.1263775097248624</v>
       </c>
       <c r="C52">
         <v>0.06349999999999997</v>
       </c>
       <c r="D52">
-        <v>3950756.605411811</v>
+        <v>3802312.524127339</v>
       </c>
       <c r="E52">
-        <v>323.1590565109764</v>
+        <v>281.0413072276586</v>
       </c>
       <c r="F52">
-        <v>1.281845006169551</v>
+        <v>9.799055597723511</v>
       </c>
       <c r="G52">
-        <v>0.003367157945969115</v>
+        <v>0.001770637222990429</v>
       </c>
       <c r="H52">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1752,25 +1752,25 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1263775097248624</v>
+        <v>0.1232951314388902</v>
       </c>
       <c r="C53">
         <v>0.06349999999999997</v>
       </c>
       <c r="D53">
-        <v>3950741.72216948</v>
+        <v>3801273.809786342</v>
       </c>
       <c r="E53">
-        <v>323.5500601271184</v>
+        <v>281.0300822907649</v>
       </c>
       <c r="F53">
-        <v>1.280277853004391</v>
+        <v>10.06967276084868</v>
       </c>
       <c r="G53">
-        <v>0.003371884231131328</v>
+        <v>0.001766420917585003</v>
       </c>
       <c r="H53">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1778,25 +1778,25 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1232951314388902</v>
+        <v>0.1202127531529179</v>
       </c>
       <c r="C54">
         <v>0.06349999999999997</v>
       </c>
       <c r="D54">
-        <v>3950726.862950534</v>
+        <v>3800187.265512409</v>
       </c>
       <c r="E54">
-        <v>323.9410516442194</v>
+        <v>281.0183380493049</v>
       </c>
       <c r="F54">
-        <v>1.278736495873192</v>
+        <v>10.35439270235725</v>
       </c>
       <c r="G54">
-        <v>0.003376557519655017</v>
+        <v>0.001762206177984966</v>
       </c>
       <c r="H54">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1804,25 +1804,25 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1202127531529179</v>
+        <v>0.1171303748669457</v>
       </c>
       <c r="C55">
         <v>0.06349999999999997</v>
       </c>
       <c r="D55">
-        <v>3950712.027121453</v>
+        <v>3799049.411498977</v>
       </c>
       <c r="E55">
-        <v>324.3320308653433</v>
+        <v>281.0060365494489</v>
       </c>
       <c r="F55">
-        <v>1.277220734141528</v>
+        <v>10.65433605595154</v>
       </c>
       <c r="G55">
-        <v>0.003381177856000665</v>
+        <v>0.001757993792734786</v>
       </c>
       <c r="H55">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1830,25 +1830,25 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1171303748669457</v>
+        <v>0.1140479965809734</v>
       </c>
       <c r="C56">
         <v>0.06349999999999997</v>
       </c>
       <c r="D56">
-        <v>3950697.214054152</v>
+        <v>3797856.412964563</v>
       </c>
       <c r="E56">
-        <v>324.7229975949666</v>
+        <v>280.9931359488214</v>
       </c>
       <c r="F56">
-        <v>1.275730370720316</v>
+        <v>10.97074570588479</v>
       </c>
       <c r="G56">
-        <v>0.003385745284904821</v>
+        <v>0.001753784593064085</v>
       </c>
       <c r="H56">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1856,25 +1856,25 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1140479965809734</v>
+        <v>0.1109656182950012</v>
       </c>
       <c r="C57">
         <v>0.06349999999999997</v>
       </c>
       <c r="D57">
-        <v>3950682.423125855</v>
+        <v>3796604.032813377</v>
       </c>
       <c r="E57">
-        <v>325.1139516388962</v>
+        <v>280.979589995759</v>
       </c>
       <c r="F57">
-        <v>1.274265212003231</v>
+        <v>11.30500400347695</v>
       </c>
       <c r="G57">
-        <v>0.003390259851390675</v>
+        <v>0.001749579451626628</v>
       </c>
       <c r="H57">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1882,25 +1882,25 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1109656182950012</v>
+        <v>0.1078832400090289</v>
       </c>
       <c r="C58">
         <v>0.06349999999999997</v>
       </c>
       <c r="D58">
-        <v>3950667.653718965</v>
+        <v>3795287.576405408</v>
       </c>
       <c r="E58">
-        <v>325.5048928041883</v>
+        <v>280.9653474214229</v>
       </c>
       <c r="F58">
-        <v>1.27282506780527</v>
+        <v>11.65865299066019</v>
       </c>
       <c r="G58">
-        <v>0.003394721600779232</v>
+        <v>0.001745379280011386</v>
       </c>
       <c r="H58">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1908,25 +1908,25 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1078832400090289</v>
+        <v>0.1048008617230567</v>
       </c>
       <c r="C59">
         <v>0.06349999999999997</v>
       </c>
       <c r="D59">
-        <v>3950652.905220945</v>
+        <v>3793901.826842066</v>
       </c>
       <c r="E59">
-        <v>325.895820899069</v>
+        <v>280.9503512270891</v>
       </c>
       <c r="F59">
-        <v>1.271409751303281</v>
+        <v>12.03341826400926</v>
       </c>
       <c r="G59">
-        <v>0.003399130578698605</v>
+        <v>0.001741185024618763</v>
       </c>
       <c r="H59">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1934,25 +1934,25 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1048008617230567</v>
+        <v>0.1017184834370844</v>
       </c>
       <c r="C60">
         <v>0.06349999999999997</v>
       </c>
       <c r="D60">
-        <v>3950638.1770242</v>
+        <v>3792440.968791862</v>
       </c>
       <c r="E60">
-        <v>326.2867357328578</v>
+        <v>280.9345378446968</v>
       </c>
       <c r="F60">
-        <v>1.270019078977331</v>
+        <v>12.43123727042989</v>
       </c>
       <c r="G60">
-        <v>0.003403486831095298</v>
+        <v>0.001736997660370041</v>
       </c>
       <c r="H60">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1960,25 +1960,25 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1017184834370844</v>
+        <v>0.09863610515111214</v>
       </c>
       <c r="C61">
         <v>0.06349999999999997</v>
       </c>
       <c r="D61">
-        <v>3950623.468525954</v>
+        <v>3790898.498392364</v>
       </c>
       <c r="E61">
-        <v>326.6776371158925</v>
+        <v>280.9178361432944</v>
       </c>
       <c r="F61">
-        <v>1.268652870553906</v>
+        <v>12.85429302910505</v>
       </c>
       <c r="G61">
-        <v>0.003407790404242756</v>
+        <v>0.001732818181552669</v>
       </c>
       <c r="H61">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1986,25 +1986,25 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09863610515111214</v>
+        <v>0.09555372686513988</v>
       </c>
       <c r="C62">
         <v>0.06349999999999997</v>
       </c>
       <c r="D62">
-        <v>3950608.779128137</v>
+        <v>3789267.11613567</v>
       </c>
       <c r="E62">
-        <v>327.0685248594557</v>
+        <v>280.9001662470057</v>
       </c>
       <c r="F62">
-        <v>1.2673109489499</v>
+        <v>13.30505453868406</v>
       </c>
       <c r="G62">
-        <v>0.003412041344752984</v>
+        <v>0.001728647588884179</v>
       </c>
       <c r="H62">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2012,25 +2012,25 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.09555372686513988</v>
+        <v>0.09247134857916763</v>
       </c>
       <c r="C63">
         <v>0.06349999999999997</v>
       </c>
       <c r="D63">
-        <v>3950594.10823727</v>
+        <v>3787538.598827926</v>
       </c>
       <c r="E63">
-        <v>327.4593987757033</v>
+        <v>280.881438121032</v>
       </c>
       <c r="F63">
-        <v>1.265993140218641</v>
+        <v>13.78632547507782</v>
       </c>
       <c r="G63">
-        <v>0.003416239699583705</v>
+        <v>0.001724486871583418</v>
       </c>
       <c r="H63">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2038,25 +2038,25 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.09247134857916763</v>
+        <v>0.08938897029319537</v>
       </c>
       <c r="C64">
         <v>0.06349999999999997</v>
       </c>
       <c r="D64">
-        <v>3950579.455264356</v>
+        <v>3785703.645644543</v>
       </c>
       <c r="E64">
-        <v>327.8502586775949</v>
+        <v>280.8615498702522</v>
       </c>
       <c r="F64">
-        <v>1.264699273496445</v>
+        <v>14.30130324293099</v>
       </c>
       <c r="G64">
-        <v>0.003420385516049339</v>
+        <v>0.00172033698284237</v>
       </c>
       <c r="H64">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2064,25 +2064,25 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.08938897029319537</v>
+        <v>0.08630659200722313</v>
       </c>
       <c r="C65">
         <v>0.06349999999999997</v>
       </c>
       <c r="D65">
-        <v>3950564.819624763</v>
+        <v>3783751.691891479</v>
       </c>
       <c r="E65">
-        <v>328.2411043788261</v>
+        <v>280.8403856792096</v>
       </c>
       <c r="F65">
-        <v>1.263429180950916</v>
+        <v>14.85365105420053</v>
       </c>
       <c r="G65">
-        <v>0.003424478841828994</v>
+        <v>0.001716198806555869</v>
       </c>
       <c r="H65">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2090,25 +2090,25 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.08630659200722313</v>
+        <v>0.08322421372125087</v>
       </c>
       <c r="C66">
         <v>0.06349999999999997</v>
       </c>
       <c r="D66">
-        <v>3950550.200738123</v>
+        <v>3781670.682202701</v>
       </c>
       <c r="E66">
-        <v>328.6319356937622</v>
+        <v>280.8178133012174</v>
       </c>
       <c r="F66">
-        <v>1.262182697730091</v>
+        <v>15.44758652917673</v>
       </c>
       <c r="G66">
-        <v>0.003428519724975951</v>
+        <v>0.001712073112435164</v>
       </c>
       <c r="H66">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2116,25 +2116,25 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.08322421372125087</v>
+        <v>0.08014183543527861</v>
       </c>
       <c r="C67">
         <v>0.06349999999999997</v>
       </c>
       <c r="D67">
-        <v>3950535.59802822</v>
+        <v>3779446.792373752</v>
       </c>
       <c r="E67">
-        <v>329.0227524373736</v>
+        <v>280.7936809759519</v>
       </c>
       <c r="F67">
-        <v>1.260959661913039</v>
+        <v>16.08799143367324</v>
       </c>
       <c r="G67">
-        <v>0.003432508213925793</v>
+        <v>0.001707960495624904</v>
       </c>
       <c r="H67">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113466</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2142,25 +2142,25 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.08014183543527861</v>
+        <v>0.07705945714930636</v>
       </c>
       <c r="C68">
         <v>0.06349999999999997</v>
       </c>
       <c r="D68">
-        <v>3950521.010922889</v>
+        <v>3777064.085590832</v>
       </c>
       <c r="E68">
-        <v>329.413554425173</v>
+        <v>280.7678136162903</v>
       </c>
       <c r="F68">
-        <v>1.259759914461379</v>
+        <v>16.78054870512297</v>
       </c>
       <c r="G68">
-        <v>0.003436444357505028</v>
+        <v>0.001703861295545639</v>
       </c>
       <c r="H68">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2168,25 +2168,25 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.07705945714930636</v>
+        <v>0.0739770788633341</v>
       </c>
       <c r="C69">
         <v>0.06349999999999997</v>
       </c>
       <c r="D69">
-        <v>3950506.43885391</v>
+        <v>3774504.084083</v>
       </c>
       <c r="E69">
-        <v>329.8043414731541</v>
+        <v>280.740008051971</v>
       </c>
       <c r="F69">
-        <v>1.258583299172057</v>
+        <v>17.53191506387215</v>
       </c>
       <c r="G69">
-        <v>0.003440328204939222</v>
+        <v>0.001699775486725082</v>
       </c>
       <c r="H69">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2194,25 +2194,25 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.0739770788633341</v>
+        <v>0.07089470057736184</v>
       </c>
       <c r="C70">
         <v>0.06349999999999997</v>
       </c>
       <c r="D70">
-        <v>3950491.881256908</v>
+        <v>3771745.230637594</v>
       </c>
       <c r="E70">
-        <v>330.1951133977319</v>
+        <v>280.7100270435107</v>
       </c>
       <c r="F70">
-        <v>1.257429662631153</v>
+        <v>18.34994053078161</v>
       </c>
       <c r="G70">
-        <v>0.003444159805860656</v>
+        <v>0.001695702531605539</v>
       </c>
       <c r="H70">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2220,25 +2220,25 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.07089470057736184</v>
+        <v>0.0678123222913896</v>
       </c>
       <c r="C71">
         <v>0.06349999999999997</v>
       </c>
       <c r="D71">
-        <v>3950477.337571254</v>
+        <v>3768762.205126534</v>
       </c>
       <c r="E71">
-        <v>330.5858700156848</v>
+        <v>280.677591675074</v>
       </c>
       <c r="F71">
-        <v>1.256298854168724</v>
+        <v>19.24395050142671</v>
       </c>
       <c r="G71">
-        <v>0.003447939210316595</v>
+        <v>0.001691641181335941</v>
       </c>
       <c r="H71">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2246,25 +2246,25 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.0678123222913896</v>
+        <v>0.06472994400541734</v>
       </c>
       <c r="C72">
         <v>0.06349999999999997</v>
       </c>
       <c r="D72">
-        <v>3950462.807239965</v>
+        <v>3765525.047894452</v>
       </c>
       <c r="E72">
-        <v>330.976611144098</v>
+        <v>280.6423715848638</v>
       </c>
       <c r="F72">
-        <v>1.255190725814668</v>
+        <v>20.22511231928349</v>
       </c>
       <c r="G72">
-        <v>0.003451666468776597</v>
+        <v>0.001687589204779715</v>
       </c>
       <c r="H72">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2272,25 +2272,25 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.06472994400541734</v>
+        <v>0.06164756571944509</v>
       </c>
       <c r="C73">
         <v>0.06349999999999997</v>
       </c>
       <c r="D73">
-        <v>3950448.289709608</v>
+        <v>3761998.022535459</v>
       </c>
       <c r="E73">
-        <v>331.3673366003081</v>
+        <v>280.603972273032</v>
       </c>
       <c r="F73">
-        <v>1.254105132255696</v>
+        <v>21.30691759023947</v>
       </c>
       <c r="G73">
-        <v>0.003455341632139778</v>
+        <v>0.001683543017463335</v>
       </c>
       <c r="H73">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2298,25 +2298,25 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.06164756571944509</v>
+        <v>0.05856518743347283</v>
       </c>
       <c r="C74">
         <v>0.06349999999999997</v>
       </c>
       <c r="D74">
-        <v>3950433.784430203</v>
+        <v>3758138.12202109</v>
       </c>
       <c r="E74">
-        <v>331.7580462018498</v>
+        <v>280.5619184034189</v>
       </c>
       <c r="F74">
-        <v>1.253041930793234</v>
+        <v>22.50582548202061</v>
       </c>
       <c r="G74">
-        <v>0.003458964751741688</v>
+        <v>0.001679497169469557</v>
       </c>
       <c r="H74">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2324,25 +2324,25 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.05856518743347283</v>
+        <v>0.05548280914750058</v>
       </c>
       <c r="C75">
         <v>0.06349999999999997</v>
       </c>
       <c r="D75">
-        <v>3950419.290855135</v>
+        <v>3753893.079126308</v>
       </c>
       <c r="E75">
-        <v>332.1487397664036</v>
+        <v>280.5156315269408</v>
       </c>
       <c r="F75">
-        <v>1.252000981302164</v>
+        <v>23.84213376356332</v>
       </c>
       <c r="G75">
-        <v>0.0034625358793619</v>
+        <v>0.00167544363192733</v>
       </c>
       <c r="H75">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2350,25 +2350,25 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.05548280914750058</v>
+        <v>0.05240043086152833</v>
       </c>
       <c r="C76">
         <v>0.06349999999999997</v>
       </c>
       <c r="D76">
-        <v>3950404.808441052</v>
+        <v>3749198.675980088</v>
       </c>
       <c r="E76">
-        <v>332.5394171117451</v>
+        <v>280.4643999018779</v>
       </c>
       <c r="F76">
-        <v>1.250982146190594</v>
+        <v>25.34117814103496</v>
       </c>
       <c r="G76">
-        <v>0.003466055067230723</v>
+        <v>0.001671370791742719</v>
       </c>
       <c r="H76">
-        <v>0.004736826432130646</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2376,25 +2376,25 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.05240043086152833</v>
+        <v>0.04931805257555607</v>
       </c>
       <c r="C77">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D77">
-        <v>3950390.336647784</v>
+        <v>3743975.043596239</v>
       </c>
       <c r="E77">
-        <v>332.9300780556957</v>
+        <v>281.384932425306</v>
       </c>
       <c r="F77">
-        <v>1.249985290360731</v>
+        <v>27.2268181063475</v>
       </c>
       <c r="G77">
-        <v>0.003469522368034913</v>
+        <v>0.001641049509845111</v>
       </c>
       <c r="H77">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2402,25 +2402,25 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.04931805257555607</v>
+        <v>0.04623567428958381</v>
       </c>
       <c r="C78">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D78">
-        <v>3950375.874938246</v>
+        <v>3737458.081570639</v>
       </c>
       <c r="E78">
-        <v>333.320722416074</v>
+        <v>282.3366617258238</v>
       </c>
       <c r="F78">
-        <v>1.249010281170235</v>
+        <v>28.10821214258206</v>
       </c>
       <c r="G78">
-        <v>0.003472937834925055</v>
+        <v>0.001614442675250491</v>
       </c>
       <c r="H78">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2428,25 +2428,25 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.04623567428958381</v>
+        <v>0.04315329600361156</v>
       </c>
       <c r="C79">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D79">
-        <v>3950361.422778352</v>
+        <v>3733676.719752789</v>
       </c>
       <c r="E79">
-        <v>333.71135001065</v>
+        <v>283.3195190284853</v>
       </c>
       <c r="F79">
-        <v>1.248056988394862</v>
+        <v>28.94188917276186</v>
       </c>
       <c r="G79">
-        <v>0.003476301521520737</v>
+        <v>0.001590131403325839</v>
       </c>
       <c r="H79">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2454,25 +2454,25 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.04315329600361156</v>
+        <v>0.04007091771763931</v>
       </c>
       <c r="C80">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D80">
-        <v>3950346.979636928</v>
+        <v>3729921.809170279</v>
       </c>
       <c r="E80">
-        <v>334.1019606570989</v>
+        <v>284.3313023017558</v>
       </c>
       <c r="F80">
-        <v>1.247125284191499</v>
+        <v>29.77908730441366</v>
       </c>
       <c r="G80">
-        <v>0.003479613481918101</v>
+        <v>0.00156699499600707</v>
       </c>
       <c r="H80">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113461</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2480,25 +2480,25 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.04007091771763931</v>
+        <v>0.03698853943166705</v>
       </c>
       <c r="C81">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D81">
-        <v>3950332.544985627</v>
+        <v>3726043.666318272</v>
       </c>
       <c r="E81">
-        <v>334.4925541729573</v>
+        <v>285.3712566311765</v>
       </c>
       <c r="F81">
-        <v>1.246215043062705</v>
+        <v>30.62274877229953</v>
       </c>
       <c r="G81">
-        <v>0.003482873770693278</v>
+        <v>0.001544896573338549</v>
       </c>
       <c r="H81">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2506,25 +2506,25 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.03698853943166705</v>
+        <v>0.0339061611456948</v>
       </c>
       <c r="C82">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D82">
-        <v>3950318.118298841</v>
+        <v>3722031.358148832</v>
       </c>
       <c r="E82">
-        <v>334.8831303755803</v>
+        <v>286.4386848349</v>
       </c>
       <c r="F82">
-        <v>1.245326141821168</v>
+        <v>31.47322165016384</v>
       </c>
       <c r="G82">
-        <v>0.003486082442910519</v>
+        <v>0.001523755726065583</v>
       </c>
       <c r="H82">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2532,25 +2532,25 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.0339061611456948</v>
+        <v>0.03082378285972254</v>
       </c>
       <c r="C83">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D83">
-        <v>3950303.699053621</v>
+        <v>3717881.445554527</v>
       </c>
       <c r="E83">
-        <v>335.2736890820996</v>
+        <v>287.5328781246537</v>
       </c>
       <c r="F83">
-        <v>1.244458459555801</v>
+        <v>32.33072203670471</v>
       </c>
       <c r="G83">
-        <v>0.003489239554125677</v>
+        <v>0.001503501663923709</v>
       </c>
       <c r="H83">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2558,25 +2558,25 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.03082378285972254</v>
+        <v>0.02774140457375029</v>
       </c>
       <c r="C84">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D84">
-        <v>3950289.286729591</v>
+        <v>3713590.799088464</v>
       </c>
       <c r="E84">
-        <v>335.6642301093836</v>
+        <v>288.653115288537</v>
       </c>
       <c r="F84">
-        <v>1.243611877598002</v>
+        <v>33.19547055555913</v>
       </c>
       <c r="G84">
-        <v>0.003492345160392814</v>
+        <v>0.001484070009330154</v>
       </c>
       <c r="H84">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2584,25 +2584,25 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.02774140457375029</v>
+        <v>0.02465902628777803</v>
       </c>
       <c r="C85">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D85">
-        <v>3950274.88080887</v>
+        <v>3709156.189639691</v>
       </c>
       <c r="E85">
-        <v>336.0547532739972</v>
+        <v>289.7986654762471</v>
       </c>
       <c r="F85">
-        <v>1.242786279489149</v>
+        <v>34.06770229469315</v>
       </c>
       <c r="G85">
-        <v>0.003495399318268038</v>
+        <v>0.001465401916645761</v>
       </c>
       <c r="H85">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2610,25 +2610,25 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.02465902628777803</v>
+        <v>0.02157664800180578</v>
       </c>
       <c r="C86">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D86">
-        <v>3950260.480775988</v>
+        <v>3704574.252158909</v>
       </c>
       <c r="E86">
-        <v>336.4452583921645</v>
+        <v>290.9687911473691</v>
       </c>
       <c r="F86">
-        <v>1.241981550948229</v>
+        <v>34.9476694384588</v>
       </c>
       <c r="G86">
-        <v>0.003498402084815833</v>
+        <v>0.001447443425306253</v>
       </c>
       <c r="H86">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2636,25 +2636,25 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.02157664800180578</v>
+        <v>0.01849426971583353</v>
       </c>
       <c r="C87">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D87">
-        <v>3950246.086117808</v>
+        <v>3699841.470271248</v>
       </c>
       <c r="E87">
-        <v>336.8357452797312</v>
+        <v>292.162750961693</v>
       </c>
       <c r="F87">
-        <v>1.241197579840851</v>
+        <v>35.83564313612705</v>
       </c>
       <c r="G87">
-        <v>0.003501353517612606</v>
+        <v>0.001430144920616848</v>
       </c>
       <c r="H87">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2662,25 +2662,25 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01849426971583353</v>
+        <v>0.01541189142986127</v>
       </c>
       <c r="C88">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D88">
-        <v>3950231.696323451</v>
+        <v>3694954.162329339</v>
       </c>
       <c r="E88">
-        <v>337.2262137521286</v>
+        <v>293.3798025649315</v>
       </c>
       <c r="F88">
-        <v>1.240434256148612</v>
+        <v>36.73191516174963</v>
       </c>
       <c r="G88">
-        <v>0.00350425367475143</v>
+        <v>0.001413460672358973</v>
       </c>
       <c r="H88">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2688,25 +2688,25 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.01541189142986127</v>
+        <v>0.01232951314388902</v>
       </c>
       <c r="C89">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D89">
-        <v>3950217.310884213</v>
+        <v>3689908.467288856</v>
       </c>
       <c r="E89">
-        <v>337.6166636243394</v>
+        <v>294.6192052376526</v>
       </c>
       <c r="F89">
-        <v>1.239691471939036</v>
+        <v>37.63679907029359</v>
       </c>
       <c r="G89">
-        <v>0.003507102614847016</v>
+        <v>0.001397348450854806</v>
       </c>
       <c r="H89">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2714,25 +2714,25 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.01232951314388902</v>
+        <v>0.009247134857916763</v>
       </c>
       <c r="C90">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D90">
-        <v>3950202.92929349</v>
+        <v>3684700.331548302</v>
       </c>
       <c r="E90">
-        <v>338.0070947108633</v>
+        <v>295.880222381643</v>
       </c>
       <c r="F90">
-        <v>1.238969121336437</v>
+        <v>38.55063136607667</v>
       </c>
       <c r="G90">
-        <v>0.003509900397039556</v>
+        <v>0.001381769188524432</v>
       </c>
       <c r="H90">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2740,25 +2740,25 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.009247134857916763</v>
+        <v>0.006164756571944509</v>
       </c>
       <c r="C91">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D91">
-        <v>3950188.551046707</v>
+        <v>3679325.495108977</v>
       </c>
       <c r="E91">
-        <v>338.397506825684</v>
+        <v>297.1621238233055</v>
       </c>
       <c r="F91">
-        <v>1.238267100493355</v>
+        <v>39.47377239137137</v>
       </c>
       <c r="G91">
-        <v>0.003512647080998577</v>
+        <v>0.001366686691809953</v>
       </c>
       <c r="H91">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2766,25 +2766,25 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.006164756571944509</v>
+        <v>0.003082378285972254</v>
       </c>
       <c r="C92">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D92">
-        <v>3950174.175641234</v>
+        <v>3673779.478106346</v>
       </c>
       <c r="E92">
-        <v>338.7878997822384</v>
+        <v>298.4641879198998</v>
       </c>
       <c r="F92">
-        <v>1.237585307562668</v>
+        <v>40.40660710370894</v>
       </c>
       <c r="G92">
-        <v>0.003515342726926907</v>
+        <v>0.001352067389647792</v>
       </c>
       <c r="H92">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2792,51 +2792,25 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.003082378285972254</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.06349999999999999</v>
+        <v>0.06349999999999997</v>
       </c>
       <c r="D93">
-        <v>3950159.802576323</v>
+        <v>3668057.5672096</v>
       </c>
       <c r="E93">
-        <v>339.1782733933848</v>
+        <v>299.785703459365</v>
       </c>
       <c r="F93">
-        <v>1.23692364267004</v>
+        <v>41.34954576706532</v>
       </c>
       <c r="G93">
-        <v>0.003517987395565053</v>
+        <v>0.001337880112920828</v>
       </c>
       <c r="H93">
-        <v>0.004736826432130644</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0.06349999999999999</v>
-      </c>
-      <c r="D94">
-        <v>3950145.431353025</v>
-      </c>
-      <c r="E94">
-        <v>339.5686274713734</v>
-      </c>
-      <c r="F94">
-        <v>1.236282007887567</v>
-      </c>
-      <c r="G94">
-        <v>0.003520581148193607</v>
-      </c>
-      <c r="H94">
-        <v>0.004736826432130644</v>
+        <v>0.002693557475113468</v>
       </c>
     </row>
   </sheetData>

--- a/RegenSolver/enginefiles/solverdata.xlsx
+++ b/RegenSolver/enginefiles/solverdata.xlsx
@@ -481,13 +481,13 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>5380855.640641909</v>
+        <v>5380855.64064191</v>
       </c>
       <c r="E2" t="n">
         <v>333.364596632549</v>
       </c>
       <c r="F2" t="n">
-        <v>57.74603884800698</v>
+        <v>57.74603884800694</v>
       </c>
       <c r="G2" t="n">
         <v>0.001012688106202476</v>
@@ -513,7 +513,7 @@
         <v>331.7123044363435</v>
       </c>
       <c r="F3" t="n">
-        <v>56.04592581574953</v>
+        <v>56.0459258157495</v>
       </c>
       <c r="G3" t="n">
         <v>0.001026082060861393</v>
@@ -539,10 +539,10 @@
         <v>330.0850880066599</v>
       </c>
       <c r="F4" t="n">
-        <v>54.38644488885548</v>
+        <v>54.38644488885546</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001039831467954383</v>
+        <v>0.001039831467954384</v>
       </c>
       <c r="H4" t="n">
         <v>0.001413437990688696</v>
@@ -565,7 +565,7 @@
         <v>328.48387641294</v>
       </c>
       <c r="F5" t="n">
-        <v>52.76519940691123</v>
+        <v>52.76519940691122</v>
       </c>
       <c r="G5" t="n">
         <v>0.001053966125593972</v>
@@ -591,7 +591,7 @@
         <v>326.9096224611731</v>
       </c>
       <c r="F6" t="n">
-        <v>51.17998101370817</v>
+        <v>51.17998101370816</v>
       </c>
       <c r="G6" t="n">
         <v>0.001068518524841946</v>
@@ -617,10 +617,10 @@
         <v>325.3633007077179</v>
       </c>
       <c r="F7" t="n">
-        <v>49.62875272793628</v>
+        <v>49.62875272793627</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001083524138930065</v>
+        <v>0.001083524138930066</v>
       </c>
       <c r="H7" t="n">
         <v>0.001413437990688696</v>
@@ -643,10 +643,10 @@
         <v>323.8459051308002</v>
       </c>
       <c r="F8" t="n">
-        <v>48.10963408482019</v>
+        <v>48.10963408482016</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001099021751310963</v>
+        <v>0.001099021751310964</v>
       </c>
       <c r="H8" t="n">
         <v>0.001413437990688696</v>
@@ -669,7 +669,7 @@
         <v>322.3584464407463</v>
       </c>
       <c r="F9" t="n">
-        <v>46.62088800791025</v>
+        <v>46.62088800791023</v>
       </c>
       <c r="G9" t="n">
         <v>0.001115053829856163</v>
@@ -695,7 +695,7 @@
         <v>320.9019490146513</v>
       </c>
       <c r="F10" t="n">
-        <v>45.16090911378289</v>
+        <v>45.16090911378288</v>
       </c>
       <c r="G10" t="n">
         <v>0.001131666956210945</v>
@@ -721,7 +721,7 @@
         <v>319.4774474468149</v>
       </c>
       <c r="F11" t="n">
-        <v>43.72821318729017</v>
+        <v>43.72821318729018</v>
       </c>
       <c r="G11" t="n">
         <v>0.001148912321439121</v>
@@ -747,7 +747,7 @@
         <v>318.0859827128575</v>
       </c>
       <c r="F12" t="n">
-        <v>42.32142759316535</v>
+        <v>42.32142759316536</v>
       </c>
       <c r="G12" t="n">
         <v>0.001166846301760522</v>
@@ -773,7 +773,7 @@
         <v>316.7285979528552</v>
       </c>
       <c r="F13" t="n">
-        <v>40.93928241279441</v>
+        <v>40.93928241279439</v>
       </c>
       <c r="G13" t="n">
         <v>0.001185531131551398</v>
@@ -799,7 +799,7 @@
         <v>315.4063338869</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58060211401639</v>
+        <v>39.58060211401638</v>
       </c>
       <c r="G14" t="n">
         <v>0.001205035695043053</v>
@@ -851,10 +851,10 @@
         <v>312.8712887212639</v>
       </c>
       <c r="F16" t="n">
-        <v>36.92935831948081</v>
+        <v>36.92935831948078</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001246818612294248</v>
+        <v>0.001246818612294249</v>
       </c>
       <c r="H16" t="n">
         <v>0.001413437990688693</v>
@@ -877,7 +877,7 @@
         <v>311.6605310520458</v>
       </c>
       <c r="F17" t="n">
-        <v>35.63484475272511</v>
+        <v>35.63484475272509</v>
       </c>
       <c r="G17" t="n">
         <v>0.001269277358905534</v>
@@ -903,7 +903,7 @@
         <v>310.4889296617544</v>
       </c>
       <c r="F18" t="n">
-        <v>34.35988035532146</v>
+        <v>34.35988035532145</v>
       </c>
       <c r="G18" t="n">
         <v>0.001292919579312115</v>
@@ -929,7 +929,7 @@
         <v>309.3574335300204</v>
       </c>
       <c r="F19" t="n">
-        <v>33.10364359980914</v>
+        <v>33.10364359980915</v>
       </c>
       <c r="G19" t="n">
         <v>0.001317865769688736</v>
@@ -981,7 +981,7 @@
         <v>307.2183675293579</v>
       </c>
       <c r="F21" t="n">
-        <v>30.64429074770146</v>
+        <v>30.64429074770145</v>
       </c>
       <c r="G21" t="n">
         <v>0.001372235095140292</v>
@@ -1007,7 +1007,7 @@
         <v>306.2124918100994</v>
       </c>
       <c r="F22" t="n">
-        <v>29.4397279576471</v>
+        <v>29.43972795764709</v>
       </c>
       <c r="G22" t="n">
         <v>0.001401991843355654</v>
@@ -1033,7 +1033,7 @@
         <v>305.2500974232308</v>
       </c>
       <c r="F23" t="n">
-        <v>28.25097944644108</v>
+        <v>28.25097944644107</v>
       </c>
       <c r="G23" t="n">
         <v>0.001433728028026688</v>
@@ -1059,7 +1059,7 @@
         <v>304.3318929793139</v>
       </c>
       <c r="F24" t="n">
-        <v>27.07735948613846</v>
+        <v>27.07735948613845</v>
       </c>
       <c r="G24" t="n">
         <v>0.001467681985501799</v>
@@ -1088,7 +1088,7 @@
         <v>25.91817576439007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001504132388730277</v>
+        <v>0.001504132388730278</v>
       </c>
       <c r="H25" t="n">
         <v>0.001413437990688693</v>
@@ -1111,7 +1111,7 @@
         <v>302.6305522765191</v>
       </c>
       <c r="F26" t="n">
-        <v>24.7727146396117</v>
+        <v>24.77271463961169</v>
       </c>
       <c r="G26" t="n">
         <v>0.001543407713033235</v>
@@ -1166,7 +1166,7 @@
         <v>22.51988785660041</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001632074052252611</v>
+        <v>0.001632074052252612</v>
       </c>
       <c r="H28" t="n">
         <v>0.001413437990688693</v>
@@ -1189,10 +1189,10 @@
         <v>300.4235849176774</v>
       </c>
       <c r="F29" t="n">
-        <v>21.4107343064594</v>
+        <v>21.41073430645939</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001682506390236882</v>
+        <v>0.001682506390236883</v>
       </c>
       <c r="H29" t="n">
         <v>0.001413437990688693</v>
@@ -1215,10 +1215,10 @@
         <v>299.7813619307027</v>
       </c>
       <c r="F30" t="n">
-        <v>20.31069793458747</v>
+        <v>20.31069793458746</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001737942349756809</v>
+        <v>0.00173794234975681</v>
       </c>
       <c r="H30" t="n">
         <v>0.001413437990688695</v>
@@ -1270,7 +1270,7 @@
         <v>17.91046256118968</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001864603711499552</v>
+        <v>0.001864603711499551</v>
       </c>
       <c r="H32" t="n">
         <v>0.001413437990688695</v>
@@ -1293,10 +1293,10 @@
         <v>298.664513051108</v>
       </c>
       <c r="F33" t="n">
-        <v>17.19187178574415</v>
+        <v>17.19187178574414</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001859118890217871</v>
+        <v>0.001859118890217872</v>
       </c>
       <c r="H33" t="n">
         <v>0.001413437990688695</v>
@@ -1319,10 +1319,10 @@
         <v>298.6893207581564</v>
       </c>
       <c r="F34" t="n">
-        <v>16.53021935012314</v>
+        <v>16.53021935012312</v>
       </c>
       <c r="G34" t="n">
-        <v>0.001853906485555979</v>
+        <v>0.00185390648555598</v>
       </c>
       <c r="H34" t="n">
         <v>0.001413437990688695</v>
@@ -1348,7 +1348,7 @@
         <v>15.91884794244984</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001848952776248894</v>
+        <v>0.001848952776248895</v>
       </c>
       <c r="H35" t="n">
         <v>0.001413437990688695</v>
@@ -1371,7 +1371,7 @@
         <v>298.7346913704829</v>
       </c>
       <c r="F36" t="n">
-        <v>15.35211104082523</v>
+        <v>15.35211104082522</v>
       </c>
       <c r="G36" t="n">
         <v>0.001844244389858629</v>
@@ -1449,10 +1449,10 @@
         <v>298.7940390658707</v>
       </c>
       <c r="F39" t="n">
-        <v>13.87476962784166</v>
+        <v>13.87476962784165</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001831464866275816</v>
+        <v>0.001831464866275817</v>
       </c>
       <c r="H39" t="n">
         <v>0.001413437990688695</v>
@@ -1475,7 +1475,7 @@
         <v>298.8118986556496</v>
       </c>
       <c r="F40" t="n">
-        <v>13.44458562798301</v>
+        <v>13.44458562798302</v>
       </c>
       <c r="G40" t="n">
         <v>0.001827614302546856</v>
@@ -1530,7 +1530,7 @@
         <v>12.66062710292854</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00182046261277237</v>
+        <v>0.001820462612772369</v>
       </c>
       <c r="H42" t="n">
         <v>0.001413437990688695</v>
@@ -1553,10 +1553,10 @@
         <v>298.8607570566016</v>
       </c>
       <c r="F43" t="n">
-        <v>12.30237157008699</v>
+        <v>12.30237157008698</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001817142027158456</v>
+        <v>0.001817142027158457</v>
       </c>
       <c r="H43" t="n">
         <v>0.001413437990688695</v>
@@ -1582,7 +1582,7 @@
         <v>11.96404241364655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001813979561138683</v>
+        <v>0.001813979561138684</v>
       </c>
       <c r="H44" t="n">
         <v>0.001413437990688693</v>
@@ -1657,10 +1657,10 @@
         <v>298.9169236423494</v>
       </c>
       <c r="F47" t="n">
-        <v>11.0530012278724</v>
+        <v>11.05300122787239</v>
       </c>
       <c r="G47" t="n">
-        <v>0.001805359442844489</v>
+        <v>0.00180535944284449</v>
       </c>
       <c r="H47" t="n">
         <v>0.001413437990688693</v>
@@ -1761,7 +1761,7 @@
         <v>298.9651759061291</v>
       </c>
       <c r="F51" t="n">
-        <v>10.03508393177279</v>
+        <v>10.0350839317728</v>
       </c>
       <c r="G51" t="n">
         <v>0.001795623676672618</v>
@@ -1781,16 +1781,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>5756064.12238067</v>
+        <v>5756064.122380671</v>
       </c>
       <c r="E52" t="n">
-        <v>298.9762248265708</v>
+        <v>298.9762248265709</v>
       </c>
       <c r="F52" t="n">
-        <v>9.809294338082932</v>
+        <v>9.809294338082971</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001793462155542769</v>
+        <v>0.001793462155542758</v>
       </c>
       <c r="H52" t="n">
         <v>0.001413437990688693</v>
@@ -1807,16 +1807,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>5757423.364948373</v>
+        <v>5757423.364948374</v>
       </c>
       <c r="E53" t="n">
-        <v>298.9869150519524</v>
+        <v>298.9869150519523</v>
       </c>
       <c r="F53" t="n">
-        <v>9.593440500041403</v>
+        <v>9.593440500041389</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001791398755810868</v>
+        <v>0.001791398755810874</v>
       </c>
       <c r="H53" t="n">
         <v>0.001413437990688693</v>
@@ -1833,16 +1833,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>5758739.813272488</v>
+        <v>5758739.813272489</v>
       </c>
       <c r="E54" t="n">
-        <v>298.997266741142</v>
+        <v>298.9972667411421</v>
       </c>
       <c r="F54" t="n">
-        <v>9.386871852492854</v>
+        <v>9.386871852492842</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001789428595802843</v>
+        <v>0.001789428595802846</v>
       </c>
       <c r="H54" t="n">
         <v>0.001413437990688693</v>
@@ -1859,16 +1859,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>5760015.809989394</v>
+        <v>5760015.809989395</v>
       </c>
       <c r="E55" t="n">
-        <v>299.0072984992553</v>
+        <v>299.0072984992552</v>
       </c>
       <c r="F55" t="n">
         <v>9.188994153347727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001787547073870774</v>
+        <v>0.001787547073870777</v>
       </c>
       <c r="H55" t="n">
         <v>0.001413437990688693</v>
@@ -1885,16 +1885,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>5761253.972098433</v>
+        <v>5761253.972098434</v>
       </c>
       <c r="E56" t="n">
-        <v>299.0170310687072</v>
+        <v>299.017031068707</v>
       </c>
       <c r="F56" t="n">
-        <v>8.99926230866815</v>
+        <v>8.99926230866812</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001785750062362205</v>
+        <v>0.001785750062362215</v>
       </c>
       <c r="H56" t="n">
         <v>0.001413437990688693</v>
@@ -1911,16 +1911,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>5762506.726938734</v>
+        <v>5762506.726938735</v>
       </c>
       <c r="E57" t="n">
         <v>299.0268766037465</v>
       </c>
       <c r="F57" t="n">
-        <v>8.817051874845923</v>
+        <v>8.81705187484595</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001784056967018069</v>
+        <v>0.001784056967018065</v>
       </c>
       <c r="H57" t="n">
         <v>0.001413437990688693</v>
@@ -1937,19 +1937,19 @@
         <v>0.04444927937816039</v>
       </c>
       <c r="D58" t="n">
-        <v>5764060.01453783</v>
+        <v>5764060.014537831</v>
       </c>
       <c r="E58" t="n">
-        <v>299.0390816276602</v>
+        <v>299.03908162766</v>
       </c>
       <c r="F58" t="n">
-        <v>8.62808840215696</v>
+        <v>8.628088402156944</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001785377217166122</v>
+        <v>0.001785377217166127</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001420109332549778</v>
+        <v>0.001420109332549773</v>
       </c>
     </row>
     <row r="59">
@@ -1963,19 +1963,19 @@
         <v>0.0443448098807399</v>
       </c>
       <c r="D59" t="n">
-        <v>5765299.709454424</v>
+        <v>5765299.709454425</v>
       </c>
       <c r="E59" t="n">
         <v>299.0488206534753</v>
       </c>
       <c r="F59" t="n">
-        <v>8.353174243817165</v>
+        <v>8.35317424381717</v>
       </c>
       <c r="G59" t="n">
-        <v>0.00181178445524759</v>
+        <v>0.001811784455247589</v>
       </c>
       <c r="H59" t="n">
-        <v>0.00148987266446349</v>
+        <v>0.001489872664463494</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +2001,7 @@
         <v>0.001832269968230004</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001549943656007687</v>
+        <v>0.00154994365600769</v>
       </c>
     </row>
     <row r="61">
@@ -2021,13 +2021,13 @@
         <v>299.0624315274819</v>
       </c>
       <c r="F61" t="n">
-        <v>8.022739067828169</v>
+        <v>8.022739067828175</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001846911120492704</v>
+        <v>0.001846911120492703</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001599551906179234</v>
+        <v>0.001599551906179228</v>
       </c>
     </row>
     <row r="62">
@@ -2047,13 +2047,13 @@
         <v>299.0667583121067</v>
       </c>
       <c r="F62" t="n">
-        <v>7.953154071438226</v>
+        <v>7.953154071438221</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001855803798064163</v>
+        <v>0.001855803798064164</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001638103370397734</v>
+        <v>0.001638103370397732</v>
       </c>
     </row>
     <row r="63">
@@ -2073,13 +2073,13 @@
         <v>299.0695803763014</v>
       </c>
       <c r="F63" t="n">
-        <v>7.941756892445376</v>
+        <v>7.941756892445384</v>
       </c>
       <c r="G63" t="n">
-        <v>0.00185906526097772</v>
+        <v>0.001859065260977718</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001665186774493829</v>
+        <v>0.001665186774493825</v>
       </c>
     </row>
     <row r="64">
@@ -2105,7 +2105,7 @@
         <v>0.001856837176444755</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001680577586021548</v>
+        <v>0.001680577586021544</v>
       </c>
     </row>
     <row r="65">
@@ -2125,13 +2125,13 @@
         <v>299.0706905245892</v>
       </c>
       <c r="F65" t="n">
-        <v>8.087564022697402</v>
+        <v>8.087564022697405</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001849289018713738</v>
+        <v>0.001849289018713737</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001684239600379689</v>
+        <v>0.001684239600379695</v>
       </c>
     </row>
     <row r="66">
@@ -2151,13 +2151,13 @@
         <v>299.0687814898998</v>
       </c>
       <c r="F66" t="n">
-        <v>8.245608863948901</v>
+        <v>8.245608863948906</v>
       </c>
       <c r="G66" t="n">
-        <v>0.00183662208075258</v>
+        <v>0.001836622080752579</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001676324243435297</v>
+        <v>0.001676324243435302</v>
       </c>
     </row>
     <row r="67">
@@ -2177,13 +2177,13 @@
         <v>299.0649596970949</v>
       </c>
       <c r="F67" t="n">
-        <v>8.463384800798968</v>
+        <v>8.463384800798964</v>
       </c>
       <c r="G67" t="n">
         <v>0.001819074453276014</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001657167754429081</v>
+        <v>0.001657167754429086</v>
       </c>
     </row>
     <row r="68">
@@ -2203,13 +2203,13 @@
         <v>299.0588968807369</v>
       </c>
       <c r="F68" t="n">
-        <v>8.744938559460525</v>
+        <v>8.744938559460529</v>
       </c>
       <c r="G68" t="n">
         <v>0.001796927521312585</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001627286512636495</v>
+        <v>0.001627286512636494</v>
       </c>
     </row>
     <row r="69">
@@ -2229,13 +2229,13 @@
         <v>299.0501364659759</v>
       </c>
       <c r="F69" t="n">
-        <v>9.095851936683808</v>
+        <v>9.095851936683813</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001770514869059102</v>
+        <v>0.001770514869059101</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001587370930568905</v>
+        <v>0.001587370930568902</v>
       </c>
     </row>
     <row r="70">
@@ -2255,13 +2255,13 @@
         <v>299.0380609732201</v>
       </c>
       <c r="F70" t="n">
-        <v>9.523345054949118</v>
+        <v>9.523345054949116</v>
       </c>
       <c r="G70" t="n">
         <v>0.001740235097176401</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001538278607546713</v>
+        <v>0.001538278607546721</v>
       </c>
     </row>
     <row r="71">
@@ -2281,13 +2281,13 @@
         <v>299.0218519205381</v>
       </c>
       <c r="F71" t="n">
-        <v>10.03637617259134</v>
+        <v>10.03637617259135</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001706571203959007</v>
+        <v>0.001706571203959006</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00148102792319281</v>
+        <v>0.001481027923192809</v>
       </c>
     </row>
     <row r="72">
@@ -2307,13 +2307,13 @@
         <v>299.0004477379268</v>
       </c>
       <c r="F72" t="n">
-        <v>10.64567076918651</v>
+        <v>10.64567076918652</v>
       </c>
       <c r="G72" t="n">
-        <v>0.001670121440069031</v>
+        <v>0.001670121440069029</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001416794179055603</v>
+        <v>0.001416794179055609</v>
       </c>
     </row>
     <row r="73">
@@ -2339,7 +2339,7 @@
         <v>0.001631651289125411</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001346912302953881</v>
+        <v>0.001346912302953879</v>
       </c>
     </row>
     <row r="74">
@@ -2359,10 +2359,10 @@
         <v>298.9365224553621</v>
       </c>
       <c r="F74" t="n">
-        <v>12.20310783261303</v>
+        <v>12.20310783261304</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001592187011633123</v>
+        <v>0.001592187011633121</v>
       </c>
       <c r="H74" t="n">
         <v>0.001272894383698758</v>
@@ -2385,13 +2385,13 @@
         <v>298.8910950506346</v>
       </c>
       <c r="F75" t="n">
-        <v>13.17626592614717</v>
+        <v>13.17626592614718</v>
       </c>
       <c r="G75" t="n">
         <v>0.001553201605012283</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001196480795900494</v>
+        <v>0.0011964807959005</v>
       </c>
     </row>
     <row r="76">
@@ -2411,13 +2411,13 @@
         <v>298.8383683229173</v>
       </c>
       <c r="F76" t="n">
-        <v>14.28662839313858</v>
+        <v>14.28662839313859</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001517117403260645</v>
+        <v>0.001517117403260644</v>
       </c>
       <c r="H76" t="n">
-        <v>0.001119812745245546</v>
+        <v>0.001119812745245552</v>
       </c>
     </row>
     <row r="77">
@@ -2437,10 +2437,10 @@
         <v>298.7898774646526</v>
       </c>
       <c r="F77" t="n">
-        <v>15.48145302670683</v>
+        <v>15.48145302670684</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001489203560111872</v>
+        <v>0.001489203560111871</v>
       </c>
       <c r="H77" t="n">
         <v>0.001047693810145897</v>
@@ -2469,7 +2469,7 @@
         <v>0.001478641049443563</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0009885274879492295</v>
+        <v>0.0009885274879492289</v>
       </c>
     </row>
     <row r="79">
@@ -2489,13 +2489,13 @@
         <v>298.811349976681</v>
       </c>
       <c r="F79" t="n">
-        <v>17.33780771497329</v>
+        <v>17.33780771497331</v>
       </c>
       <c r="G79" t="n">
-        <v>0.001497984638019908</v>
+        <v>0.001497984638019907</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0009518787352771742</v>
+        <v>0.0009518787352771728</v>
       </c>
     </row>
     <row r="80">
@@ -2521,7 +2521,7 @@
         <v>0.001564858757063794</v>
       </c>
       <c r="H80" t="n">
-        <v>0.000949677314828533</v>
+        <v>0.0009496773148285365</v>
       </c>
     </row>
     <row r="81">
@@ -2541,13 +2541,13 @@
         <v>299.1639477031368</v>
       </c>
       <c r="F81" t="n">
-        <v>16.31775324844389</v>
+        <v>16.3177532484439</v>
       </c>
       <c r="G81" t="n">
-        <v>0.00170563575787317</v>
+        <v>0.001705635757873169</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0009994188935763611</v>
+        <v>0.0009994188935763594</v>
       </c>
     </row>
     <row r="82">
@@ -2567,13 +2567,13 @@
         <v>299.4478093335861</v>
       </c>
       <c r="F82" t="n">
-        <v>14.11627329376348</v>
+        <v>14.11627329376349</v>
       </c>
       <c r="G82" t="n">
-        <v>0.001962459673017691</v>
+        <v>0.00196245967301769</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001123822223401186</v>
+        <v>0.001123822223401187</v>
       </c>
     </row>
     <row r="83">
@@ -2593,13 +2593,13 @@
         <v>299.5962823095628</v>
       </c>
       <c r="F83" t="n">
-        <v>10.55616568367059</v>
+        <v>10.55616568367061</v>
       </c>
       <c r="G83" t="n">
-        <v>0.002456070048948607</v>
+        <v>0.002456070048948603</v>
       </c>
       <c r="H83" t="n">
-        <v>0.001403790571722095</v>
+        <v>0.001403790571722092</v>
       </c>
     </row>
     <row r="84">
@@ -2619,13 +2619,13 @@
         <v>299.669377436237</v>
       </c>
       <c r="F84" t="n">
-        <v>8.085221378594074</v>
+        <v>8.085221378594101</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002951098937024674</v>
+        <v>0.002951098937024665</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001721979609326527</v>
+        <v>0.001721979609326519</v>
       </c>
     </row>
     <row r="85">
@@ -2645,13 +2645,13 @@
         <v>299.7110557220614</v>
       </c>
       <c r="F85" t="n">
-        <v>6.523746621865358</v>
+        <v>6.523746621865378</v>
       </c>
       <c r="G85" t="n">
-        <v>0.00338979158874217</v>
+        <v>0.003389791588742159</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002020777397808899</v>
+        <v>0.002020777397808894</v>
       </c>
     </row>
     <row r="86">
@@ -2671,13 +2671,13 @@
         <v>299.7367102152099</v>
       </c>
       <c r="F86" t="n">
-        <v>5.43404543056584</v>
+        <v>5.434045430565854</v>
       </c>
       <c r="G86" t="n">
-        <v>0.003794231641791308</v>
+        <v>0.003794231641791298</v>
       </c>
       <c r="H86" t="n">
-        <v>0.002307351892794663</v>
+        <v>0.002307351892794656</v>
       </c>
     </row>
     <row r="87">
@@ -2697,13 +2697,13 @@
         <v>299.7533419933191</v>
       </c>
       <c r="F87" t="n">
-        <v>4.638518177048831</v>
+        <v>4.638518177048844</v>
       </c>
       <c r="G87" t="n">
-        <v>0.004165485660936782</v>
+        <v>0.00416548566093677</v>
       </c>
       <c r="H87" t="n">
-        <v>0.002578807050852179</v>
+        <v>0.002578807050852176</v>
       </c>
     </row>
     <row r="88">
@@ -2723,13 +2723,13 @@
         <v>299.7645601677772</v>
       </c>
       <c r="F88" t="n">
-        <v>4.041961401999608</v>
+        <v>4.041961401999612</v>
       </c>
       <c r="G88" t="n">
-        <v>0.004499799609519653</v>
+        <v>0.004499799609519648</v>
       </c>
       <c r="H88" t="n">
-        <v>0.002829875950110962</v>
+        <v>0.002829875950110955</v>
       </c>
     </row>
     <row r="89">
@@ -2749,13 +2749,13 @@
         <v>299.7723678035392</v>
       </c>
       <c r="F89" t="n">
-        <v>3.58657871180648</v>
+        <v>3.586578711806489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.00479250035856558</v>
+        <v>0.004792500358565568</v>
       </c>
       <c r="H89" t="n">
-        <v>0.003054880095184298</v>
+        <v>0.003054880095184295</v>
       </c>
     </row>
     <row r="90">
@@ -2775,13 +2775,13 @@
         <v>299.7779405262352</v>
       </c>
       <c r="F90" t="n">
-        <v>3.235017305862</v>
+        <v>3.235017305862009</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005039175035061339</v>
+        <v>0.005039175035061326</v>
       </c>
       <c r="H90" t="n">
-        <v>0.003248326963537547</v>
+        <v>0.003248326963537539</v>
       </c>
     </row>
     <row r="91">
@@ -2801,13 +2801,13 @@
         <v>299.7819975418111</v>
       </c>
       <c r="F91" t="n">
-        <v>2.961967265459017</v>
+        <v>2.961967265459021</v>
       </c>
       <c r="G91" t="n">
-        <v>0.005236455053244697</v>
+        <v>0.005236455053244688</v>
       </c>
       <c r="H91" t="n">
-        <v>0.003405411242743307</v>
+        <v>0.003405411242743294</v>
       </c>
     </row>
     <row r="92">
@@ -2827,13 +2827,13 @@
         <v>299.7849936025715</v>
       </c>
       <c r="F92" t="n">
-        <v>2.749746873930493</v>
+        <v>2.749746873930503</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005382347763785374</v>
+        <v>0.005382347763785354</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00352228119477662</v>
+        <v>0.00352228119477661</v>
       </c>
     </row>
     <row r="93">
@@ -2853,13 +2853,13 @@
         <v>299.7872234070813</v>
       </c>
       <c r="F93" t="n">
-        <v>2.585731447138762</v>
+        <v>2.585731447138768</v>
       </c>
       <c r="G93" t="n">
-        <v>0.005476348480561193</v>
+        <v>0.005476348480561182</v>
       </c>
       <c r="H93" t="n">
-        <v>0.003596193233566932</v>
+        <v>0.003596193233566917</v>
       </c>
     </row>
     <row r="94">
@@ -2879,13 +2879,13 @@
         <v>299.7888812791967</v>
       </c>
       <c r="F94" t="n">
-        <v>2.460807147359884</v>
+        <v>2.460807147359895</v>
       </c>
       <c r="G94" t="n">
-        <v>0.005519336480344019</v>
+        <v>0.005519336480343994</v>
       </c>
       <c r="H94" t="n">
-        <v>0.003625532326126989</v>
+        <v>0.003625532326126969</v>
       </c>
     </row>
     <row r="95">
@@ -2905,13 +2905,13 @@
         <v>299.7900976197795</v>
       </c>
       <c r="F95" t="n">
-        <v>2.368378123859216</v>
+        <v>2.368378123859225</v>
       </c>
       <c r="G95" t="n">
-        <v>0.005513375837816614</v>
+        <v>0.005513375837816591</v>
       </c>
       <c r="H95" t="n">
-        <v>0.003609770571339098</v>
+        <v>0.003609770571339077</v>
       </c>
     </row>
     <row r="96">
@@ -2931,13 +2931,13 @@
         <v>299.790959145061</v>
       </c>
       <c r="F96" t="n">
-        <v>2.303617115370689</v>
+        <v>2.303617115370693</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005461639473400543</v>
+        <v>0.005461639473400534</v>
       </c>
       <c r="H96" t="n">
-        <v>0.003549517986982321</v>
+        <v>0.003549517986982314</v>
       </c>
     </row>
     <row r="97">
@@ -2957,13 +2957,13 @@
         <v>299.7915216195977</v>
       </c>
       <c r="F97" t="n">
-        <v>2.263092383913747</v>
+        <v>2.263092383913755</v>
       </c>
       <c r="G97" t="n">
-        <v>0.005368046309129139</v>
+        <v>0.00536804630912912</v>
       </c>
       <c r="H97" t="n">
-        <v>0.003446346898837239</v>
+        <v>0.00344634689883723</v>
       </c>
     </row>
     <row r="98">
@@ -2983,13 +2983,13 @@
         <v>299.791817161551</v>
       </c>
       <c r="F98" t="n">
-        <v>2.244497097133002</v>
+        <v>2.244497097133009</v>
       </c>
       <c r="G98" t="n">
-        <v>0.005236964655154994</v>
+        <v>0.005236964655154979</v>
       </c>
       <c r="H98" t="n">
-        <v>0.003302649562947913</v>
+        <v>0.003302649562947898</v>
       </c>
     </row>
     <row r="99">
@@ -3009,13 +3009,13 @@
         <v>299.7918596849685</v>
       </c>
       <c r="F99" t="n">
-        <v>2.246504742256918</v>
+        <v>2.246504742256924</v>
       </c>
       <c r="G99" t="n">
-        <v>0.005072913326670691</v>
+        <v>0.005072913326670678</v>
       </c>
       <c r="H99" t="n">
-        <v>0.003121478834055085</v>
+        <v>0.00312147883405507</v>
       </c>
     </row>
     <row r="100">
@@ -3035,13 +3035,13 @@
         <v>299.7916450915375</v>
       </c>
       <c r="F100" t="n">
-        <v>2.268576534224329</v>
+        <v>2.268576534224338</v>
       </c>
       <c r="G100" t="n">
-        <v>0.004880527033300381</v>
+        <v>0.004880527033300362</v>
       </c>
       <c r="H100" t="n">
-        <v>0.00290657085963607</v>
+        <v>0.00290657085963606</v>
       </c>
     </row>
     <row r="101">
@@ -3061,13 +3061,13 @@
         <v>299.7919859996938</v>
       </c>
       <c r="F101" t="n">
-        <v>2.31104576278594</v>
+        <v>2.311045762785946</v>
       </c>
       <c r="G101" t="n">
-        <v>0.004664235021086297</v>
+        <v>0.004664235021086285</v>
       </c>
       <c r="H101" t="n">
-        <v>0.002662079530907418</v>
+        <v>0.002662079530907405</v>
       </c>
     </row>
   </sheetData>

--- a/RegenSolver/enginefiles/solverdata.xlsx
+++ b/RegenSolver/enginefiles/solverdata.xlsx
@@ -481,13 +481,13 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>5380855.64064191</v>
+        <v>5380855.640641909</v>
       </c>
       <c r="E2" t="n">
         <v>333.364596632549</v>
       </c>
       <c r="F2" t="n">
-        <v>57.74603884800694</v>
+        <v>57.74603884800698</v>
       </c>
       <c r="G2" t="n">
         <v>0.001012688106202476</v>
@@ -513,7 +513,7 @@
         <v>331.7123044363435</v>
       </c>
       <c r="F3" t="n">
-        <v>56.0459258157495</v>
+        <v>56.04592581574953</v>
       </c>
       <c r="G3" t="n">
         <v>0.001026082060861393</v>
@@ -539,10 +539,10 @@
         <v>330.0850880066599</v>
       </c>
       <c r="F4" t="n">
-        <v>54.38644488885546</v>
+        <v>54.38644488885548</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001039831467954384</v>
+        <v>0.001039831467954383</v>
       </c>
       <c r="H4" t="n">
         <v>0.001413437990688696</v>
@@ -565,7 +565,7 @@
         <v>328.48387641294</v>
       </c>
       <c r="F5" t="n">
-        <v>52.76519940691122</v>
+        <v>52.76519940691123</v>
       </c>
       <c r="G5" t="n">
         <v>0.001053966125593972</v>
@@ -591,7 +591,7 @@
         <v>326.9096224611731</v>
       </c>
       <c r="F6" t="n">
-        <v>51.17998101370816</v>
+        <v>51.17998101370817</v>
       </c>
       <c r="G6" t="n">
         <v>0.001068518524841946</v>
@@ -617,10 +617,10 @@
         <v>325.3633007077179</v>
       </c>
       <c r="F7" t="n">
-        <v>49.62875272793627</v>
+        <v>49.62875272793628</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001083524138930066</v>
+        <v>0.001083524138930065</v>
       </c>
       <c r="H7" t="n">
         <v>0.001413437990688696</v>
@@ -643,10 +643,10 @@
         <v>323.8459051308002</v>
       </c>
       <c r="F8" t="n">
-        <v>48.10963408482016</v>
+        <v>48.10963408482019</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001099021751310964</v>
+        <v>0.001099021751310963</v>
       </c>
       <c r="H8" t="n">
         <v>0.001413437990688696</v>
@@ -669,7 +669,7 @@
         <v>322.3584464407463</v>
       </c>
       <c r="F9" t="n">
-        <v>46.62088800791023</v>
+        <v>46.62088800791025</v>
       </c>
       <c r="G9" t="n">
         <v>0.001115053829856163</v>
@@ -695,7 +695,7 @@
         <v>320.9019490146513</v>
       </c>
       <c r="F10" t="n">
-        <v>45.16090911378288</v>
+        <v>45.16090911378289</v>
       </c>
       <c r="G10" t="n">
         <v>0.001131666956210945</v>
@@ -721,7 +721,7 @@
         <v>319.4774474468149</v>
       </c>
       <c r="F11" t="n">
-        <v>43.72821318729018</v>
+        <v>43.72821318729017</v>
       </c>
       <c r="G11" t="n">
         <v>0.001148912321439121</v>
@@ -747,7 +747,7 @@
         <v>318.0859827128575</v>
       </c>
       <c r="F12" t="n">
-        <v>42.32142759316536</v>
+        <v>42.32142759316535</v>
       </c>
       <c r="G12" t="n">
         <v>0.001166846301760522</v>
@@ -773,7 +773,7 @@
         <v>316.7285979528552</v>
       </c>
       <c r="F13" t="n">
-        <v>40.93928241279439</v>
+        <v>40.93928241279441</v>
       </c>
       <c r="G13" t="n">
         <v>0.001185531131551398</v>
@@ -799,7 +799,7 @@
         <v>315.4063338869</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58060211401638</v>
+        <v>39.58060211401639</v>
       </c>
       <c r="G14" t="n">
         <v>0.001205035695043053</v>
@@ -851,10 +851,10 @@
         <v>312.8712887212639</v>
       </c>
       <c r="F16" t="n">
-        <v>36.92935831948078</v>
+        <v>36.92935831948081</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001246818612294249</v>
+        <v>0.001246818612294248</v>
       </c>
       <c r="H16" t="n">
         <v>0.001413437990688693</v>
@@ -877,7 +877,7 @@
         <v>311.6605310520458</v>
       </c>
       <c r="F17" t="n">
-        <v>35.63484475272509</v>
+        <v>35.63484475272511</v>
       </c>
       <c r="G17" t="n">
         <v>0.001269277358905534</v>
@@ -903,7 +903,7 @@
         <v>310.4889296617544</v>
       </c>
       <c r="F18" t="n">
-        <v>34.35988035532145</v>
+        <v>34.35988035532146</v>
       </c>
       <c r="G18" t="n">
         <v>0.001292919579312115</v>
@@ -929,7 +929,7 @@
         <v>309.3574335300204</v>
       </c>
       <c r="F19" t="n">
-        <v>33.10364359980915</v>
+        <v>33.10364359980914</v>
       </c>
       <c r="G19" t="n">
         <v>0.001317865769688736</v>
@@ -981,7 +981,7 @@
         <v>307.2183675293579</v>
       </c>
       <c r="F21" t="n">
-        <v>30.64429074770145</v>
+        <v>30.64429074770146</v>
       </c>
       <c r="G21" t="n">
         <v>0.001372235095140292</v>
@@ -1007,7 +1007,7 @@
         <v>306.2124918100994</v>
       </c>
       <c r="F22" t="n">
-        <v>29.43972795764709</v>
+        <v>29.4397279576471</v>
       </c>
       <c r="G22" t="n">
         <v>0.001401991843355654</v>
@@ -1033,7 +1033,7 @@
         <v>305.2500974232308</v>
       </c>
       <c r="F23" t="n">
-        <v>28.25097944644107</v>
+        <v>28.25097944644108</v>
       </c>
       <c r="G23" t="n">
         <v>0.001433728028026688</v>
@@ -1059,7 +1059,7 @@
         <v>304.3318929793139</v>
       </c>
       <c r="F24" t="n">
-        <v>27.07735948613845</v>
+        <v>27.07735948613846</v>
       </c>
       <c r="G24" t="n">
         <v>0.001467681985501799</v>
@@ -1088,7 +1088,7 @@
         <v>25.91817576439007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.001504132388730278</v>
+        <v>0.001504132388730277</v>
       </c>
       <c r="H25" t="n">
         <v>0.001413437990688693</v>
@@ -1111,7 +1111,7 @@
         <v>302.6305522765191</v>
       </c>
       <c r="F26" t="n">
-        <v>24.77271463961169</v>
+        <v>24.7727146396117</v>
       </c>
       <c r="G26" t="n">
         <v>0.001543407713033235</v>
@@ -1166,7 +1166,7 @@
         <v>22.51988785660041</v>
       </c>
       <c r="G28" t="n">
-        <v>0.001632074052252612</v>
+        <v>0.001632074052252611</v>
       </c>
       <c r="H28" t="n">
         <v>0.001413437990688693</v>
@@ -1189,10 +1189,10 @@
         <v>300.4235849176774</v>
       </c>
       <c r="F29" t="n">
-        <v>21.41073430645939</v>
+        <v>21.4107343064594</v>
       </c>
       <c r="G29" t="n">
-        <v>0.001682506390236883</v>
+        <v>0.001682506390236882</v>
       </c>
       <c r="H29" t="n">
         <v>0.001413437990688693</v>
@@ -1215,10 +1215,10 @@
         <v>299.7813619307027</v>
       </c>
       <c r="F30" t="n">
-        <v>20.31069793458746</v>
+        <v>20.31069793458747</v>
       </c>
       <c r="G30" t="n">
-        <v>0.00173794234975681</v>
+        <v>0.001737942349756809</v>
       </c>
       <c r="H30" t="n">
         <v>0.001413437990688695</v>
@@ -1270,7 +1270,7 @@
         <v>17.91046256118968</v>
       </c>
       <c r="G32" t="n">
-        <v>0.001864603711499551</v>
+        <v>0.001864603711499552</v>
       </c>
       <c r="H32" t="n">
         <v>0.001413437990688695</v>
@@ -1293,10 +1293,10 @@
         <v>298.664513051108</v>
       </c>
       <c r="F33" t="n">
-        <v>17.19187178574414</v>
+        <v>17.19187178574415</v>
       </c>
       <c r="G33" t="n">
-        <v>0.001859118890217872</v>
+        <v>0.001859118890217871</v>
       </c>
       <c r="H33" t="n">
         <v>0.001413437990688695</v>
@@ -1319,10 +1319,10 @@
         <v>298.6893207581564</v>
       </c>
       <c r="F34" t="n">
-        <v>16.53021935012312</v>
+        <v>16.53021935012314</v>
       </c>
       <c r="G34" t="n">
-        <v>0.00185390648555598</v>
+        <v>0.001853906485555979</v>
       </c>
       <c r="H34" t="n">
         <v>0.001413437990688695</v>
@@ -1348,7 +1348,7 @@
         <v>15.91884794244984</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001848952776248895</v>
+        <v>0.001848952776248894</v>
       </c>
       <c r="H35" t="n">
         <v>0.001413437990688695</v>
@@ -1371,7 +1371,7 @@
         <v>298.7346913704829</v>
       </c>
       <c r="F36" t="n">
-        <v>15.35211104082522</v>
+        <v>15.35211104082523</v>
       </c>
       <c r="G36" t="n">
         <v>0.001844244389858629</v>
@@ -1449,10 +1449,10 @@
         <v>298.7940390658707</v>
       </c>
       <c r="F39" t="n">
-        <v>13.87476962784165</v>
+        <v>13.87476962784166</v>
       </c>
       <c r="G39" t="n">
-        <v>0.001831464866275817</v>
+        <v>0.001831464866275816</v>
       </c>
       <c r="H39" t="n">
         <v>0.001413437990688695</v>
@@ -1475,7 +1475,7 @@
         <v>298.8118986556496</v>
       </c>
       <c r="F40" t="n">
-        <v>13.44458562798302</v>
+        <v>13.44458562798301</v>
       </c>
       <c r="G40" t="n">
         <v>0.001827614302546856</v>
@@ -1530,7 +1530,7 @@
         <v>12.66062710292854</v>
       </c>
       <c r="G42" t="n">
-        <v>0.001820462612772369</v>
+        <v>0.00182046261277237</v>
       </c>
       <c r="H42" t="n">
         <v>0.001413437990688695</v>
@@ -1553,10 +1553,10 @@
         <v>298.8607570566016</v>
       </c>
       <c r="F43" t="n">
-        <v>12.30237157008698</v>
+        <v>12.30237157008699</v>
       </c>
       <c r="G43" t="n">
-        <v>0.001817142027158457</v>
+        <v>0.001817142027158456</v>
       </c>
       <c r="H43" t="n">
         <v>0.001413437990688695</v>
@@ -1582,7 +1582,7 @@
         <v>11.96404241364655</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001813979561138684</v>
+        <v>0.001813979561138683</v>
       </c>
       <c r="H44" t="n">
         <v>0.001413437990688693</v>
@@ -1657,10 +1657,10 @@
         <v>298.9169236423494</v>
       </c>
       <c r="F47" t="n">
-        <v>11.05300122787239</v>
+        <v>11.0530012278724</v>
       </c>
       <c r="G47" t="n">
-        <v>0.00180535944284449</v>
+        <v>0.001805359442844489</v>
       </c>
       <c r="H47" t="n">
         <v>0.001413437990688693</v>
@@ -1761,7 +1761,7 @@
         <v>298.9651759061291</v>
       </c>
       <c r="F51" t="n">
-        <v>10.0350839317728</v>
+        <v>10.03508393177279</v>
       </c>
       <c r="G51" t="n">
         <v>0.001795623676672618</v>
@@ -1781,16 +1781,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>5756064.122380671</v>
+        <v>5756064.12238067</v>
       </c>
       <c r="E52" t="n">
-        <v>298.9762248265709</v>
+        <v>298.9762248265708</v>
       </c>
       <c r="F52" t="n">
-        <v>9.809294338082971</v>
+        <v>9.809294338082932</v>
       </c>
       <c r="G52" t="n">
-        <v>0.001793462155542758</v>
+        <v>0.001793462155542769</v>
       </c>
       <c r="H52" t="n">
         <v>0.001413437990688693</v>
@@ -1807,16 +1807,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>5757423.364948374</v>
+        <v>5757423.364948373</v>
       </c>
       <c r="E53" t="n">
-        <v>298.9869150519523</v>
+        <v>298.9869150519524</v>
       </c>
       <c r="F53" t="n">
-        <v>9.593440500041389</v>
+        <v>9.593440500041403</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001791398755810874</v>
+        <v>0.001791398755810868</v>
       </c>
       <c r="H53" t="n">
         <v>0.001413437990688693</v>
@@ -1833,16 +1833,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>5758739.813272489</v>
+        <v>5758739.813272488</v>
       </c>
       <c r="E54" t="n">
-        <v>298.9972667411421</v>
+        <v>298.997266741142</v>
       </c>
       <c r="F54" t="n">
-        <v>9.386871852492842</v>
+        <v>9.386871852492854</v>
       </c>
       <c r="G54" t="n">
-        <v>0.001789428595802846</v>
+        <v>0.001789428595802843</v>
       </c>
       <c r="H54" t="n">
         <v>0.001413437990688693</v>
@@ -1859,16 +1859,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>5760015.809989395</v>
+        <v>5760015.809989394</v>
       </c>
       <c r="E55" t="n">
-        <v>299.0072984992552</v>
+        <v>299.0072984992553</v>
       </c>
       <c r="F55" t="n">
         <v>9.188994153347727</v>
       </c>
       <c r="G55" t="n">
-        <v>0.001787547073870777</v>
+        <v>0.001787547073870774</v>
       </c>
       <c r="H55" t="n">
         <v>0.001413437990688693</v>
@@ -1885,16 +1885,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>5761253.972098434</v>
+        <v>5761253.972098433</v>
       </c>
       <c r="E56" t="n">
-        <v>299.017031068707</v>
+        <v>299.0170310687072</v>
       </c>
       <c r="F56" t="n">
-        <v>8.99926230866812</v>
+        <v>8.99926230866815</v>
       </c>
       <c r="G56" t="n">
-        <v>0.001785750062362215</v>
+        <v>0.001785750062362205</v>
       </c>
       <c r="H56" t="n">
         <v>0.001413437990688693</v>
@@ -1911,16 +1911,16 @@
         <v>0.0444499999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>5762506.726938735</v>
+        <v>5762506.726938734</v>
       </c>
       <c r="E57" t="n">
         <v>299.0268766037465</v>
       </c>
       <c r="F57" t="n">
-        <v>8.81705187484595</v>
+        <v>8.817051874845923</v>
       </c>
       <c r="G57" t="n">
-        <v>0.001784056967018065</v>
+        <v>0.001784056967018069</v>
       </c>
       <c r="H57" t="n">
         <v>0.001413437990688693</v>
@@ -1937,19 +1937,19 @@
         <v>0.04444927937816039</v>
       </c>
       <c r="D58" t="n">
-        <v>5764060.014537831</v>
+        <v>5764060.01453783</v>
       </c>
       <c r="E58" t="n">
-        <v>299.03908162766</v>
+        <v>299.0390816276602</v>
       </c>
       <c r="F58" t="n">
-        <v>8.628088402156944</v>
+        <v>8.62808840215696</v>
       </c>
       <c r="G58" t="n">
-        <v>0.001785377217166127</v>
+        <v>0.001785377217166122</v>
       </c>
       <c r="H58" t="n">
-        <v>0.001420109332549773</v>
+        <v>0.001420109332549778</v>
       </c>
     </row>
     <row r="59">
@@ -1963,19 +1963,19 @@
         <v>0.0443448098807399</v>
       </c>
       <c r="D59" t="n">
-        <v>5765299.709454425</v>
+        <v>5765299.709454424</v>
       </c>
       <c r="E59" t="n">
         <v>299.0488206534753</v>
       </c>
       <c r="F59" t="n">
-        <v>8.35317424381717</v>
+        <v>8.353174243817165</v>
       </c>
       <c r="G59" t="n">
-        <v>0.001811784455247589</v>
+        <v>0.00181178445524759</v>
       </c>
       <c r="H59" t="n">
-        <v>0.001489872664463494</v>
+        <v>0.00148987266446349</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +2001,7 @@
         <v>0.001832269968230004</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00154994365600769</v>
+        <v>0.001549943656007687</v>
       </c>
     </row>
     <row r="61">
@@ -2021,13 +2021,13 @@
         <v>299.0624315274819</v>
       </c>
       <c r="F61" t="n">
-        <v>8.022739067828175</v>
+        <v>8.022739067828169</v>
       </c>
       <c r="G61" t="n">
-        <v>0.001846911120492703</v>
+        <v>0.001846911120492704</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001599551906179228</v>
+        <v>0.001599551906179234</v>
       </c>
     </row>
     <row r="62">
@@ -2047,13 +2047,13 @@
         <v>299.0667583121067</v>
       </c>
       <c r="F62" t="n">
-        <v>7.953154071438221</v>
+        <v>7.953154071438226</v>
       </c>
       <c r="G62" t="n">
-        <v>0.001855803798064164</v>
+        <v>0.001855803798064163</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001638103370397732</v>
+        <v>0.001638103370397734</v>
       </c>
     </row>
     <row r="63">
@@ -2073,13 +2073,13 @@
         <v>299.0695803763014</v>
       </c>
       <c r="F63" t="n">
-        <v>7.941756892445384</v>
+        <v>7.941756892445376</v>
       </c>
       <c r="G63" t="n">
-        <v>0.001859065260977718</v>
+        <v>0.00185906526097772</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001665186774493825</v>
+        <v>0.001665186774493829</v>
       </c>
     </row>
     <row r="64">
@@ -2105,7 +2105,7 @@
         <v>0.001856837176444755</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001680577586021544</v>
+        <v>0.001680577586021548</v>
       </c>
     </row>
     <row r="65">
@@ -2125,13 +2125,13 @@
         <v>299.0706905245892</v>
       </c>
       <c r="F65" t="n">
-        <v>8.087564022697405</v>
+        <v>8.087564022697402</v>
       </c>
       <c r="G65" t="n">
-        <v>0.001849289018713737</v>
+        <v>0.001849289018713738</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001684239600379695</v>
+        <v>0.001684239600379689</v>
       </c>
     </row>
     <row r="66">
@@ -2151,13 +2151,13 @@
         <v>299.0687814898998</v>
       </c>
       <c r="F66" t="n">
-        <v>8.245608863948906</v>
+        <v>8.245608863948901</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001836622080752579</v>
+        <v>0.00183662208075258</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001676324243435302</v>
+        <v>0.001676324243435297</v>
       </c>
     </row>
     <row r="67">
@@ -2177,13 +2177,13 @@
         <v>299.0649596970949</v>
       </c>
       <c r="F67" t="n">
-        <v>8.463384800798964</v>
+        <v>8.463384800798968</v>
       </c>
       <c r="G67" t="n">
         <v>0.001819074453276014</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001657167754429086</v>
+        <v>0.001657167754429081</v>
       </c>
     </row>
     <row r="68">
@@ -2203,13 +2203,13 @@
         <v>299.0588968807369</v>
       </c>
       <c r="F68" t="n">
-        <v>8.744938559460529</v>
+        <v>8.744938559460525</v>
       </c>
       <c r="G68" t="n">
         <v>0.001796927521312585</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001627286512636494</v>
+        <v>0.001627286512636495</v>
       </c>
     </row>
     <row r="69">
@@ -2229,13 +2229,13 @@
         <v>299.0501364659759</v>
       </c>
       <c r="F69" t="n">
-        <v>9.095851936683813</v>
+        <v>9.095851936683808</v>
       </c>
       <c r="G69" t="n">
-        <v>0.001770514869059101</v>
+        <v>0.001770514869059102</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001587370930568902</v>
+        <v>0.001587370930568905</v>
       </c>
     </row>
     <row r="70">
@@ -2255,13 +2255,13 @@
         <v>299.0380609732201</v>
       </c>
       <c r="F70" t="n">
-        <v>9.523345054949116</v>
+        <v>9.523345054949118</v>
       </c>
       <c r="G70" t="n">
         <v>0.001740235097176401</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001538278607546721</v>
+        <v>0.001538278607546713</v>
       </c>
     </row>
     <row r="71">
@@ -2281,13 +2281,13 @@
         <v>299.0218519205381</v>
       </c>
       <c r="F71" t="n">
-        <v>10.03637617259135</v>
+        <v>10.03637617259134</v>
       </c>
       <c r="G71" t="n">
-        <v>0.001706571203959006</v>
+        <v>0.001706571203959007</v>
       </c>
       <c r="H71" t="n">
-        <v>0.001481027923192809</v>
+        <v>0.00148102792319281</v>
       </c>
     </row>
     <row r="72">
@@ -2307,13 +2307,13 @@
         <v>299.0004477379268</v>
       </c>
       <c r="F72" t="n">
-        <v>10.64567076918652</v>
+        <v>10.64567076918651</v>
       </c>
       <c r="G72" t="n">
-        <v>0.001670121440069029</v>
+        <v>0.001670121440069031</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001416794179055609</v>
+        <v>0.001416794179055603</v>
       </c>
     </row>
     <row r="73">
@@ -2339,7 +2339,7 @@
         <v>0.001631651289125411</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001346912302953879</v>
+        <v>0.001346912302953881</v>
       </c>
     </row>
     <row r="74">
@@ -2359,10 +2359,10 @@
         <v>298.9365224553621</v>
       </c>
       <c r="F74" t="n">
-        <v>12.20310783261304</v>
+        <v>12.20310783261303</v>
       </c>
       <c r="G74" t="n">
-        <v>0.001592187011633121</v>
+        <v>0.001592187011633123</v>
       </c>
       <c r="H74" t="n">
         <v>0.001272894383698758</v>
@@ -2385,13 +2385,13 @@
         <v>298.8910950506346</v>
       </c>
       <c r="F75" t="n">
-        <v>13.17626592614718</v>
+        <v>13.17626592614717</v>
       </c>
       <c r="G75" t="n">
         <v>0.001553201605012283</v>
       </c>
       <c r="H75" t="n">
-        <v>0.0011964807959005</v>
+        <v>0.001196480795900494</v>
       </c>
     </row>
     <row r="76">
@@ -2411,13 +2411,13 @@
         <v>298.8383683229173</v>
       </c>
       <c r="F76" t="n">
-        <v>14.28662839313859</v>
+        <v>14.28662839313858</v>
       </c>
       <c r="G76" t="n">
-        <v>0.001517117403260644</v>
+        <v>0.001517117403260645</v>
       </c>
       <c r="H76" t="n">
-        <v>0.001119812745245552</v>
+        <v>0.001119812745245546</v>
       </c>
     </row>
     <row r="77">
@@ -2437,10 +2437,10 @@
         <v>298.7898774646526</v>
       </c>
       <c r="F77" t="n">
-        <v>15.48145302670684</v>
+        <v>15.48145302670683</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001489203560111871</v>
+        <v>0.001489203560111872</v>
       </c>
       <c r="H77" t="n">
         <v>0.001047693810145897</v>
@@ -2469,7 +2469,7 @@
         <v>0.001478641049443563</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0009885274879492289</v>
+        <v>0.0009885274879492295</v>
       </c>
     </row>
     <row r="79">
@@ -2489,13 +2489,13 @@
         <v>298.811349976681</v>
       </c>
       <c r="F79" t="n">
-        <v>17.33780771497331</v>
+        <v>17.33780771497329</v>
       </c>
       <c r="G79" t="n">
-        <v>0.001497984638019907</v>
+        <v>0.001497984638019908</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0009518787352771728</v>
+        <v>0.0009518787352771742</v>
       </c>
     </row>
     <row r="80">
@@ -2521,7 +2521,7 @@
         <v>0.001564858757063794</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0009496773148285365</v>
+        <v>0.000949677314828533</v>
       </c>
     </row>
     <row r="81">
@@ -2541,13 +2541,13 @@
         <v>299.1639477031368</v>
       </c>
       <c r="F81" t="n">
-        <v>16.3177532484439</v>
+        <v>16.31775324844389</v>
       </c>
       <c r="G81" t="n">
-        <v>0.001705635757873169</v>
+        <v>0.00170563575787317</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0009994188935763594</v>
+        <v>0.0009994188935763611</v>
       </c>
     </row>
     <row r="82">
@@ -2567,13 +2567,13 @@
         <v>299.4478093335861</v>
       </c>
       <c r="F82" t="n">
-        <v>14.11627329376349</v>
+        <v>14.11627329376348</v>
       </c>
       <c r="G82" t="n">
-        <v>0.00196245967301769</v>
+        <v>0.001962459673017691</v>
       </c>
       <c r="H82" t="n">
-        <v>0.001123822223401187</v>
+        <v>0.001123822223401186</v>
       </c>
     </row>
     <row r="83">
@@ -2593,13 +2593,13 @@
         <v>299.5962823095628</v>
       </c>
       <c r="F83" t="n">
-        <v>10.55616568367061</v>
+        <v>10.55616568367059</v>
       </c>
       <c r="G83" t="n">
-        <v>0.002456070048948603</v>
+        <v>0.002456070048948607</v>
       </c>
       <c r="H83" t="n">
-        <v>0.001403790571722092</v>
+        <v>0.001403790571722095</v>
       </c>
     </row>
     <row r="84">
@@ -2619,13 +2619,13 @@
         <v>299.669377436237</v>
       </c>
       <c r="F84" t="n">
-        <v>8.085221378594101</v>
+        <v>8.085221378594074</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002951098937024665</v>
+        <v>0.002951098937024674</v>
       </c>
       <c r="H84" t="n">
-        <v>0.001721979609326519</v>
+        <v>0.001721979609326527</v>
       </c>
     </row>
     <row r="85">
@@ -2645,13 +2645,13 @@
         <v>299.7110557220614</v>
       </c>
       <c r="F85" t="n">
-        <v>6.523746621865378</v>
+        <v>6.523746621865358</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003389791588742159</v>
+        <v>0.00338979158874217</v>
       </c>
       <c r="H85" t="n">
-        <v>0.002020777397808894</v>
+        <v>0.002020777397808899</v>
       </c>
     </row>
     <row r="86">
@@ -2671,13 +2671,13 @@
         <v>299.7367102152099</v>
       </c>
       <c r="F86" t="n">
-        <v>5.434045430565854</v>
+        <v>5.43404543056584</v>
       </c>
       <c r="G86" t="n">
-        <v>0.003794231641791298</v>
+        <v>0.003794231641791308</v>
       </c>
       <c r="H86" t="n">
-        <v>0.002307351892794656</v>
+        <v>0.002307351892794663</v>
       </c>
     </row>
     <row r="87">
@@ -2697,13 +2697,13 @@
         <v>299.7533419933191</v>
       </c>
       <c r="F87" t="n">
-        <v>4.638518177048844</v>
+        <v>4.638518177048831</v>
       </c>
       <c r="G87" t="n">
-        <v>0.00416548566093677</v>
+        <v>0.004165485660936782</v>
       </c>
       <c r="H87" t="n">
-        <v>0.002578807050852176</v>
+        <v>0.002578807050852179</v>
       </c>
     </row>
     <row r="88">
@@ -2723,13 +2723,13 @@
         <v>299.7645601677772</v>
       </c>
       <c r="F88" t="n">
-        <v>4.041961401999612</v>
+        <v>4.041961401999608</v>
       </c>
       <c r="G88" t="n">
-        <v>0.004499799609519648</v>
+        <v>0.004499799609519653</v>
       </c>
       <c r="H88" t="n">
-        <v>0.002829875950110955</v>
+        <v>0.002829875950110962</v>
       </c>
     </row>
     <row r="89">
@@ -2749,13 +2749,13 @@
         <v>299.7723678035392</v>
       </c>
       <c r="F89" t="n">
-        <v>3.586578711806489</v>
+        <v>3.58657871180648</v>
       </c>
       <c r="G89" t="n">
-        <v>0.004792500358565568</v>
+        <v>0.00479250035856558</v>
       </c>
       <c r="H89" t="n">
-        <v>0.003054880095184295</v>
+        <v>0.003054880095184298</v>
       </c>
     </row>
     <row r="90">
@@ -2775,13 +2775,13 @@
         <v>299.7779405262352</v>
       </c>
       <c r="F90" t="n">
-        <v>3.235017305862009</v>
+        <v>3.235017305862</v>
       </c>
       <c r="G90" t="n">
-        <v>0.005039175035061326</v>
+        <v>0.005039175035061339</v>
       </c>
       <c r="H90" t="n">
-        <v>0.003248326963537539</v>
+        <v>0.003248326963537547</v>
       </c>
     </row>
     <row r="91">
@@ -2801,13 +2801,13 @@
         <v>299.7819975418111</v>
       </c>
       <c r="F91" t="n">
-        <v>2.961967265459021</v>
+        <v>2.961967265459017</v>
       </c>
       <c r="G91" t="n">
-        <v>0.005236455053244688</v>
+        <v>0.005236455053244697</v>
       </c>
       <c r="H91" t="n">
-        <v>0.003405411242743294</v>
+        <v>0.003405411242743307</v>
       </c>
     </row>
     <row r="92">
@@ -2827,13 +2827,13 @@
         <v>299.7849936025715</v>
       </c>
       <c r="F92" t="n">
-        <v>2.749746873930503</v>
+        <v>2.749746873930493</v>
       </c>
       <c r="G92" t="n">
-        <v>0.005382347763785354</v>
+        <v>0.005382347763785374</v>
       </c>
       <c r="H92" t="n">
-        <v>0.00352228119477661</v>
+        <v>0.00352228119477662</v>
       </c>
     </row>
     <row r="93">
@@ -2853,13 +2853,13 @@
         <v>299.7872234070813</v>
       </c>
       <c r="F93" t="n">
-        <v>2.585731447138768</v>
+        <v>2.585731447138762</v>
       </c>
       <c r="G93" t="n">
-        <v>0.005476348480561182</v>
+        <v>0.005476348480561193</v>
       </c>
       <c r="H93" t="n">
-        <v>0.003596193233566917</v>
+        <v>0.003596193233566932</v>
       </c>
     </row>
     <row r="94">
@@ -2879,13 +2879,13 @@
         <v>299.7888812791967</v>
       </c>
       <c r="F94" t="n">
-        <v>2.460807147359895</v>
+        <v>2.460807147359884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.005519336480343994</v>
+        <v>0.005519336480344019</v>
       </c>
       <c r="H94" t="n">
-        <v>0.003625532326126969</v>
+        <v>0.003625532326126989</v>
       </c>
     </row>
     <row r="95">
@@ -2905,13 +2905,13 @@
         <v>299.7900976197795</v>
       </c>
       <c r="F95" t="n">
-        <v>2.368378123859225</v>
+        <v>2.368378123859216</v>
       </c>
       <c r="G95" t="n">
-        <v>0.005513375837816591</v>
+        <v>0.005513375837816614</v>
       </c>
       <c r="H95" t="n">
-        <v>0.003609770571339077</v>
+        <v>0.003609770571339098</v>
       </c>
     </row>
     <row r="96">
@@ -2931,13 +2931,13 @@
         <v>299.790959145061</v>
       </c>
       <c r="F96" t="n">
-        <v>2.303617115370693</v>
+        <v>2.303617115370689</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005461639473400534</v>
+        <v>0.005461639473400543</v>
       </c>
       <c r="H96" t="n">
-        <v>0.003549517986982314</v>
+        <v>0.003549517986982321</v>
       </c>
     </row>
     <row r="97">
@@ -2957,13 +2957,13 @@
         <v>299.7915216195977</v>
       </c>
       <c r="F97" t="n">
-        <v>2.263092383913755</v>
+        <v>2.263092383913747</v>
       </c>
       <c r="G97" t="n">
-        <v>0.00536804630912912</v>
+        <v>0.005368046309129139</v>
       </c>
       <c r="H97" t="n">
-        <v>0.00344634689883723</v>
+        <v>0.003446346898837239</v>
       </c>
     </row>
     <row r="98">
@@ -2983,13 +2983,13 @@
         <v>299.791817161551</v>
       </c>
       <c r="F98" t="n">
-        <v>2.244497097133009</v>
+        <v>2.244497097133002</v>
       </c>
       <c r="G98" t="n">
-        <v>0.005236964655154979</v>
+        <v>0.005236964655154994</v>
       </c>
       <c r="H98" t="n">
-        <v>0.003302649562947898</v>
+        <v>0.003302649562947913</v>
       </c>
     </row>
     <row r="99">
@@ -3009,13 +3009,13 @@
         <v>299.7918596849685</v>
       </c>
       <c r="F99" t="n">
-        <v>2.246504742256924</v>
+        <v>2.246504742256918</v>
       </c>
       <c r="G99" t="n">
-        <v>0.005072913326670678</v>
+        <v>0.005072913326670691</v>
       </c>
       <c r="H99" t="n">
-        <v>0.00312147883405507</v>
+        <v>0.003121478834055085</v>
       </c>
     </row>
     <row r="100">
@@ -3035,13 +3035,13 @@
         <v>299.7916450915375</v>
       </c>
       <c r="F100" t="n">
-        <v>2.268576534224338</v>
+        <v>2.268576534224329</v>
       </c>
       <c r="G100" t="n">
-        <v>0.004880527033300362</v>
+        <v>0.004880527033300381</v>
       </c>
       <c r="H100" t="n">
-        <v>0.00290657085963606</v>
+        <v>0.00290657085963607</v>
       </c>
     </row>
     <row r="101">
@@ -3061,13 +3061,13 @@
         <v>299.7919859996938</v>
       </c>
       <c r="F101" t="n">
-        <v>2.311045762785946</v>
+        <v>2.31104576278594</v>
       </c>
       <c r="G101" t="n">
-        <v>0.004664235021086285</v>
+        <v>0.004664235021086297</v>
       </c>
       <c r="H101" t="n">
-        <v>0.002662079530907405</v>
+        <v>0.002662079530907418</v>
       </c>
     </row>
   </sheetData>
